--- a/propiedades11.xlsx
+++ b/propiedades11.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Diaz\Desktop\pagina de muestra para UCIDE SAS\pagina de prueba11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Diaz\Desktop\pagina de muestra para UCIDE SAS\pagina de prueba14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4344376-CDD4-451C-9337-692E10B96B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58A9817-F2FA-4C57-8A4C-5EEDB1D1F337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Propiedades" sheetId="1" r:id="rId1"/>
@@ -20,40 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
-  <si>
-    <t>Centro de la ciudad</t>
-  </si>
-  <si>
-    <t>Zona Residencial</t>
-  </si>
-  <si>
-    <t>Área Rural</t>
-  </si>
-  <si>
-    <t>Suburbios</t>
-  </si>
-  <si>
-    <t>$180,000</t>
-  </si>
-  <si>
-    <t>$300,000</t>
-  </si>
-  <si>
-    <t>$400,000</t>
-  </si>
-  <si>
-    <t>Casa amplia cerca de comercios y servicios.</t>
-  </si>
-  <si>
-    <t>Apartamento moderno con acabados de lujo.</t>
-  </si>
-  <si>
-    <t>Cabaña rústica ideal para desconectar.</t>
-  </si>
-  <si>
-    <t>Casa espaciosa con jardín y piscina.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="78">
   <si>
     <t>image</t>
   </si>
@@ -76,35 +43,224 @@
     <t>location</t>
   </si>
   <si>
-    <t xml:space="preserve">centro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sur </t>
-  </si>
-  <si>
-    <t xml:space="preserve">norte </t>
-  </si>
-  <si>
-    <t>oriente</t>
-  </si>
-  <si>
     <t>https://lh3.googleusercontent.com/pw/AP1GczNf1Q-PhAmu_ldZW8TAnKdgTYaTj3kGTVkL1r60jLH7kPXWTH-b1iFTdPA6qpSxMkwCTR7DmDfYzE40ok77bjn_eQ-lsj1A-hjy-7oX0eFFuTYGNEnVYJj0i3oYevCtGfMLbxhCnB27MQlV3l4Ms7g=w641-h641-s-no-gm?authuser=0</t>
   </si>
   <si>
     <t>https://lh3.googleusercontent.com/pw/AP1GczPiGsj_-GsBw_uQVWRdbtNHawrhgBWrWt2G9jZBtWWZNNWJ2FC4-SEiMD0FwuD2L1zd14YbQ43MmPKlYlJS1J_cenpQct5ovhdwUC4eSNn5tuQTWz7J10icC71lLqjcXI4yzFPTyUX7A77rep4wmVs=w641-h641-s-no-gm?authuser=0</t>
   </si>
   <si>
-    <t>Contact</t>
-  </si>
-  <si>
     <t>Bano</t>
+  </si>
+  <si>
+    <t>foto1</t>
+  </si>
+  <si>
+    <t>foto2</t>
+  </si>
+  <si>
+    <t>foto3</t>
+  </si>
+  <si>
+    <t>foto4</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczOJvngK6SOW6-G4L0D-ffoxxc0sK9iSWPCqu5LcUYUxHaVyFia-hlf094IS-Q51oSoIAoG0FzQdeKlanuOGDOSO9bF-Zqgccd-S1Ba6R0mxw4-KqWqw4z9LHectXm5-tyiJEil5IjvH34gLvLFN6hc=w641-h641-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>Casa en la Zona Norte</t>
+  </si>
+  <si>
+    <t>Hermosa casa con 3 habitaciones y 2 baños.</t>
+  </si>
+  <si>
+    <t>$120,000</t>
+  </si>
+  <si>
+    <t>Zona Norte</t>
+  </si>
+  <si>
+    <t>3118208920</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMNBbGN4xVS4Eneh_S6zc3b0icMeXJCjYT2k5zwOqLWOhwUqm4rK6ktv6cpY2QGk2eoMHxA9tQRa1tlVjOTn3MDLrPU1VpJmNyH0Lqc8KXQvZmhbzBNEZpB73TOmkAwql6RZPYaf_1PTgfk0jBkRBA=w641-h641-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>Apartamento en el Centro</t>
+  </si>
+  <si>
+    <t>Apartamento céntrico con acceso a todos los servicios.</t>
+  </si>
+  <si>
+    <t>$385,000</t>
+  </si>
+  <si>
+    <t>Centro</t>
+  </si>
+  <si>
+    <t>3007111204</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczN825cGe0PUmZm5agaPfAcWSnVP8aS7cIeFaEKEtzM3Nkj7qrajonFUp33lygv-4x7uIRKE_PThwyK55NUuJ6T502TfKIr2Chc7OqUia_qcmkWADKWXmwsSafHlePQWgJLjY-HWxqPnfrXmlRawS5s=w641-h641-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>Apartamento en el Centro3</t>
+  </si>
+  <si>
+    <t>$285,000</t>
+  </si>
+  <si>
+    <t>Apartamento en el Centro1</t>
+  </si>
+  <si>
+    <t>$805,000</t>
+  </si>
+  <si>
+    <t>casa sur</t>
+  </si>
+  <si>
+    <t>Zona Sur</t>
+  </si>
+  <si>
+    <t>Apartamento en el Centro2</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczNIEa6pyI4ye_XZIy-MqbFm8XfBKDKNalmUQiooHqdvfUWnd0DJKLHmE2kUB9EpZWvJ6CtejnXvGuV0GqZxzoRqsDEBiQpgr96rjSBrr5xgdbY_-0PjiCSQOHy_6H3R0ttMPZFQQcpCmxP7kaRcZFs=w641-h641-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>casa norte choco</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMkkNpBpTB7Bn8DmvgzvLg9S_zQnPBr4CwamFy8y6d3Ybgn8KAxZkN_qUG_ebR1qxrqoUnEscQ_2tOOO7lXAcnpWv2Nn2dvDy5eFAY2kBFlx_NrwA6M7B-Afqm9gRT5G4dngEz3VJ3KFv9DMAQMuso=w641-h641-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>$105,001</t>
+  </si>
+  <si>
+    <t>$195,002</t>
+  </si>
+  <si>
+    <t>$95,003</t>
+  </si>
+  <si>
+    <t>$90,004</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPSBPC0ZLLK2vqpaVXbZI7_OkJtKQEKWkXCMEOR9enOBZRLpa-4cxav6fA9eSPEnGMb9n7JYOQnjA0oRLgsmE8ZveFEnXdQY4uah0Ekdcoa64JgFIB3ZvxJ71DkTVyEsFsqs3nQ5-bdxzeGerFiTRk=w641-h641-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>$90,000</t>
+  </si>
+  <si>
+    <t>10943</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczNj3sFMB535VYnbTvkX7MxzLSzK-jVTfSpfyB1Mxb4sTQdiwfMkyWOX3vFwlysOUxnflHNhaanVNocmfsOujc4aQ6ICAmjLnXNwQWx4j3iD6IlUiSLsVbOR_oo0zEm-vJ70yzhQle0vj8SnA0HVpl4=w641-h641-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>casa campo</t>
+  </si>
+  <si>
+    <t>$900,000</t>
+  </si>
+  <si>
+    <t>059833</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>foto0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczOmKW2FdABLB-4Mhh5FMaoMsqrY1O3dSmy-bgG_wLeJWWrGstii2XZ2avqrv0o_V61xa8rAkwRCK0J1V8j2awND0N2jla9huMSL4bZAlL78PXscoq-IL3Upm7KvE4AbeY_h5PkSzMF7KgeKr99-hd8=w641-h641-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPWSQIo6fpIDT5tvDT7bUato_-fcF2X2FKaPBHpNwN4GXK9WXygwxwKXdzcNZc2ZGw3to5xaL-8h7V8Zaq03B8PdXhMf58UGMlFxlEWEYZRX3WOZVgcgarq5Fm50vb5HxwmzbrJf3s9Af-JDd49a5U=w641-h641-s-no-gm?authuser=0" alt="Miniatura 1" class="thumbnail active" data-image="https://lh3.googleusercontent.com/pw/AP1GczPWSQIo6fpIDT5tvDT7bUato_-fcF2X2FKaPBHpNwN4GXK9WXygwxwKXdzcNZc2ZGw3to5xaL-8h7V8Zaq03B8PdXhMf58UGMlFxlEWEYZRX3WOZVgcgarq5Fm50vb5HxwmzbrJf3s9Af-JDd49a5U=w641-h641-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczP5Zp6lyrH1aTyDqVu1eelsZfWgYXwkjxYCeRGWEjklz-lxeQDli82BktzQ-JnzE9hybs0is6qRPt8fEmYdF89rDz9CkE5Ax6PLqF_ewpSVSQezswv5YviJRcW0KYesOA7kqmReyyLJ7UprrRwuJLk=w641-h641-s-no-gm?authuser=0" alt="Miniatura 2" class="thumbnail" data-image="https://lh3.googleusercontent.com/pw/AP1GczP5Zp6lyrH1aTyDqVu1eelsZfWgYXwkjxYCeRGWEjklz-lxeQDli82BktzQ-JnzE9hybs0is6qRPt8fEmYdF89rDz9CkE5Ax6PLqF_ewpSVSQezswv5YviJRcW0KYesOA7kqmReyyLJ7UprrRwuJLk=w641-h641-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczM2TPp7oclmItVHti308l59UBmHGb1DA5VCIPRD33JJSe9SA2FaHSMw0rkWVzXLdEQYTy0Sb_cU_pLfIS0P546Q0cIdA4PRoVfWKd0__uwbetI-_go_w43C0dWo4gOD-fGVY1O13Dyfq4PAGJQj2nA=w641-h641-s-no-gm?authuser=0" alt="Miniatura 4" class="thumbnail" data-image="https://lh3.googleusercontent.com/pw/AP1GczM2TPp7oclmItVHti308l59UBmHGb1DA5VCIPRD33JJSe9SA2FaHSMw0rkWVzXLdEQYTy0Sb_cU_pLfIS0P546Q0cIdA4PRoVfWKd0__uwbetI-_go_w43C0dWo4gOD-fGVY1O13Dyfq4PAGJQj2nA=w641-h641-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>habita</t>
+  </si>
+  <si>
+    <t>foto5</t>
+  </si>
+  <si>
+    <t>foto6</t>
+  </si>
+  <si>
+    <t>foto7</t>
+  </si>
+  <si>
+    <t>foto8</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMe6BrQSnwmlvMNtqKcif0LLcdKm3eOqIUA4iSqM2zu2CCEEZGInsUPiCikVoSJW2O_cVS0fFm-J2JUB0ophPagJ3yId-ExPqwq6L8fz95W_kTGha6KHAaRMBqwWC3M70y5AidtZp9MJq7H_us9MBQ=w777-h641-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczOeLAKGI42QXf_n67dflTq2CTBHEQWzB5MBxTL13UFjPok8gy1s9GwrsIicsknk0S0u4Oa31kN9mlGFVOqRIOMEzW8_FpfdAmL4klwM4r1YwXOy5pnHdbQWZPhn61BvJphRmfWBMf0AcHIIrmkKqYE=w702-h641-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczOtNU4ic0D3QZ1t23cKRijP7o9SDt4R2aIAUU5UwhxyxR9P43pO7FLLfgR3mRMOLt-Vda9ZW7TG1T_uuQmTJrisb4WgVclM4Xf0elSUGRE3Xq__JKcxTEaZQEn2qQ13Q6VoU4PDv5ZhySqZwnc44L0=w641-h641-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPlOzw5WaCkPi44tCyDfxAANP6we_xORgDFoGIS5gmshecpoRlwidl4HjMZCZx-eeuVTGam9Tm8FxBxHw2o7PEaMam3vH0Q7wosUzr0QsZxC2gl2psiZ2ZvBUF7Fijo2eP8zVbezZDzQYm1xGdB6BY=w641-h641-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMitd2vnvxkfOZlnrvno1ThcIg-xL69FWB0vYcXGruGLWu9uMVvjh0yIBYVXfLOvzYohSDcFijk0LLExHC9Brjj7eg8n07usNlATVOKgwRoKq-rQOkB0kNn4ZfTWJHAoBiVtohrCHJrSNZLtfDpnG8=w641-h641-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMBCvW_WE449Y3qZ2F_MEggr6OXEuXrTB2e0UiV5nLsUSFUcVhRhq8uMNQm2oz4Xds62z087AfDqXK2ZiXp6O1emrN6WcSeu8O66vwHYW1W4BN0bGL19X7usJgcg1jUeXCR8LW2r8lJszZsnH7G9h0=w641-h641-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMy8Vr0XnYA33POHox9KgzpvWtsRCLys9rHzTnkN0-yLinQx1cITHl0ocV21TlMfYfhoCVLx5wHyZFiWAlqdJe1gO6AbEHriZLh0IVM1_8qVqSdvt2dCsFRtMt4vbv-NqagFRjF97HrE43zQxlv68M=w641-h641-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczO8VbjylXNx18Yb3x4lBFZXvmYAjD0Cn_p_5Jwu7Ri1WgGCvO1OwMvNCh8U7aJpBVjlRLlKoEbf882_dbGGTvwrN36A8sdHo-6UqSgKC3YMt5cn6gBAEyL3yGN4oBYySXJUdM-hXEB--cfxu4RJtqY=w641-h641-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczO62sit25irT9mG6u_llV2EEwwWL5OK3QqtMSgSKuZ6cZ49u7U3F3KmeRBlGjlKzquo6lk1qT8Di3LZvXlvb1Qr_SlAoBcXhwL5JaU-cMMA7oVlRv4D3ywEbes3PCuWyhAgMlOJozPxVjs5UbHJ9NY=w641-h641-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczOFb9Fkdf8bLGU7kyxPWOKzYTsyoBZVN_l3rSETUdZwiAsOL38Yvpl6zSmm3FWp94BUNCua58-0IXzJHGgDdH8EuN67Z4Uqef7XD_a5DFR6rvWYIXPfpJMGoUxqP18nFj1OT3LPOsy1qrNkvyEWkdE=w641-h641-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczOiUBfYmQAgYNqXKUnFBcNhEL90pegQ3FkBaQBML9BzB-ZKSO57pYFx8psqu-1l06QnH_3ADP7JJSp9NRcZJiXJcdqm0estuMKdug3fXYyPTUy3vEx6YyxHNoGEth_ifUXaWz-AGy6C2AbrMpYNff4=w641-h641-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczNe4KSarBVt4tmkCgKWl661jKnoKXk0o2sInqZpll047_9i8l_ymE_UrGqV0kVTTTv4b5j1Nqs_wYnqpVU2f0E8N5WLdlVNRcj8egxqo45UkJj9ve6QBnr4audehH4R8XSNj8ZhrckH__uy5RHXwSY=w641-h641-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMpJ-wEMl2D2igUDTfu2rBctcvFKDZ9cG9GjRrOySzuX2vDmPpudtwJLTWP_T9TupKS5n5NJh3QPQvAs2DNVNpiaOpdT7Y2OlGCQQZV47hLPjKuJsTyCoZIIA3-WOdpmtX_LC-rzzXbpdZaI2wbI9A=w641-h641-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMuWid3grIDZ2JdyiavRy9PqAKv8MdJeh1oBecSr5ig54zIjNYQGpoh-xxySxPw6uGPY6TuIGqLhiB6Gr5hqxnZUz1p6O9eReGYF4Ovv5beAN20H0275BBhqRZQoHWW0h4phDTBgIo6I5Gat7_zMDQ=w641-h641-s-no-gm?authuser=0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +284,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -137,7 +299,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -160,17 +322,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,152 +651,424 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="19.42578125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="I3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1">
+        <v>23456</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1">
+        <v>23456</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3">
-        <v>250000</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5432</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1">
+        <v>9876</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3">
-        <v>12</v>
-      </c>
-      <c r="H2" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="3">
-        <v>12</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="G9" s="1">
+        <v>56223</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="3">
-        <v>23456</v>
-      </c>
-      <c r="H4" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="3">
-        <v>15</v>
-      </c>
-      <c r="H5" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H11" s="2"/>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F13" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/propiedades11.xlsx
+++ b/propiedades11.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Diaz\Desktop\pagina de muestra para UCIDE SAS\pagina de prueba14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Diaz\Desktop\pagina de muestra para UCIDE SAS\pagina de prueba15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58A9817-F2FA-4C57-8A4C-5EEDB1D1F337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BB9AAC-87D4-4F8C-9732-B6E9B916993B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="81">
   <si>
     <t>image</t>
   </si>
@@ -28,9 +28,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczMgIO8pq5k3lUsKPCKqC1INV1CdPzfWg9oMn_LjpKuG-JqY1V1NPaxhbsuiv8JW1FNO6dFmjpKRKe3Lin3KyhRqjYRytTRR60pARcqhqonQCmsaz6TUcKlqyY9b5xbfdlW2SNOnNrSWnF952ZpTtEY=w641-h641-s-no-gm?authuser=0</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -43,12 +40,6 @@
     <t>location</t>
   </si>
   <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczNf1Q-PhAmu_ldZW8TAnKdgTYaTj3kGTVkL1r60jLH7kPXWTH-b1iFTdPA6qpSxMkwCTR7DmDfYzE40ok77bjn_eQ-lsj1A-hjy-7oX0eFFuTYGNEnVYJj0i3oYevCtGfMLbxhCnB27MQlV3l4Ms7g=w641-h641-s-no-gm?authuser=0</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczPiGsj_-GsBw_uQVWRdbtNHawrhgBWrWt2G9jZBtWWZNNWJ2FC4-SEiMD0FwuD2L1zd14YbQ43MmPKlYlJS1J_cenpQct5ovhdwUC4eSNn5tuQTWz7J10icC71lLqjcXI4yzFPTyUX7A77rep4wmVs=w641-h641-s-no-gm?authuser=0</t>
-  </si>
-  <si>
     <t>Bano</t>
   </si>
   <si>
@@ -100,24 +91,12 @@
     <t>3007111204</t>
   </si>
   <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczN825cGe0PUmZm5agaPfAcWSnVP8aS7cIeFaEKEtzM3Nkj7qrajonFUp33lygv-4x7uIRKE_PThwyK55NUuJ6T502TfKIr2Chc7OqUia_qcmkWADKWXmwsSafHlePQWgJLjY-HWxqPnfrXmlRawS5s=w641-h641-s-no-gm?authuser=0</t>
-  </si>
-  <si>
     <t>Apartamento en el Centro3</t>
   </si>
   <si>
     <t>$285,000</t>
   </si>
   <si>
-    <t>Apartamento en el Centro1</t>
-  </si>
-  <si>
-    <t>$805,000</t>
-  </si>
-  <si>
-    <t>casa sur</t>
-  </si>
-  <si>
     <t>Zona Sur</t>
   </si>
   <si>
@@ -133,9 +112,6 @@
     <t>https://lh3.googleusercontent.com/pw/AP1GczMkkNpBpTB7Bn8DmvgzvLg9S_zQnPBr4CwamFy8y6d3Ybgn8KAxZkN_qUG_ebR1qxrqoUnEscQ_2tOOO7lXAcnpWv2Nn2dvDy5eFAY2kBFlx_NrwA6M7B-Afqm9gRT5G4dngEz3VJ3KFv9DMAQMuso=w641-h641-s-no-gm?authuser=0</t>
   </si>
   <si>
-    <t>$105,001</t>
-  </si>
-  <si>
     <t>$195,002</t>
   </si>
   <si>
@@ -254,6 +230,39 @@
   </si>
   <si>
     <t>https://lh3.googleusercontent.com/pw/AP1GczMuWid3grIDZ2JdyiavRy9PqAKv8MdJeh1oBecSr5ig54zIjNYQGpoh-xxySxPw6uGPY6TuIGqLhiB6Gr5hqxnZUz1p6O9eReGYF4Ovv5beAN20H0275BBhqRZQoHWW0h4phDTBgIo6I5Gat7_zMDQ=w641-h641-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPrgEUHxeEAwiJgF4JNOZETnFpCFaTEgZNZSEaCovFK5T526ILJ38WQfqIp6pREvoWpuJm37gxaJWdx0shIUvXs6X2Zhf7j3PLm9UkrVz9kBbbNTvCA-Q83iLXmAKbmgP8hKDy50bWlRR2qTBqCP4M=w719-h394-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>Lote de 6.3 X 16</t>
+  </si>
+  <si>
+    <t>Se vende Lote Económico ubicado en castilla la Nueva, posee unas medidas de 6.30 de frente  X 16 de fondo, barrio san Antonio alto a tres cuadras de la alcaldía o centro de los servicios escritura pública individual, Garantizado.</t>
+  </si>
+  <si>
+    <t>$35.000.000</t>
+  </si>
+  <si>
+    <t>Castilla la Nueva</t>
+  </si>
+  <si>
+    <t>3208616734 argelino</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczORjOfI4gM__OuWI-ePRN069VMfVlrYzlTzkjr_Vy95OjaHWYbyKUL0Npms6T83_ICftuTqudvhtcfncX8YVy_MQcduAt1PH6bm2f5p7lhdxoCR0pSl233xeRS5uXCC3C65-vW7aK28dbpog2W0gV4=w720-h516-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>Lote de 11 X 15</t>
+  </si>
+  <si>
+    <t>Se vende Lote Económico ubicado en castilla la Nueva, posee unas medidas de 11 de frente  X 15 de fondo, barrio la Peña, escritura pública individual, a la Sombra, Garantizado.</t>
+  </si>
+  <si>
+    <t>$70.000.000</t>
   </si>
 </sst>
 </file>
@@ -337,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -347,6 +356,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,52 +681,52 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="Q1" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -724,55 +734,55 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="Q2" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -780,55 +790,55 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -836,28 +846,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1">
         <v>23456</v>
       </c>
-      <c r="H4" s="1">
-        <v>3</v>
+      <c r="H4" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -865,28 +875,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="1">
-        <v>15</v>
-      </c>
-      <c r="H5" s="1">
-        <v>4</v>
+        <v>75</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -894,57 +904,54 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="1">
-        <v>23456</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2</v>
+        <v>75</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1">
         <v>5432</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -952,28 +959,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G8" s="1">
         <v>9876</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -981,28 +988,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G9" s="1">
         <v>56223</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1010,28 +1017,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1039,33 +1046,36 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J11" s="4"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F13" s="4"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/propiedades11.xlsx
+++ b/propiedades11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Diaz\Desktop\pagina de muestra para UCIDE SAS\pagina de prueba15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BB9AAC-87D4-4F8C-9732-B6E9B916993B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CD11EF-2332-4BE4-A0D5-2C8F2F9CB95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="127">
   <si>
     <t>image</t>
   </si>
@@ -55,72 +55,9 @@
     <t>foto4</t>
   </si>
   <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczOJvngK6SOW6-G4L0D-ffoxxc0sK9iSWPCqu5LcUYUxHaVyFia-hlf094IS-Q51oSoIAoG0FzQdeKlanuOGDOSO9bF-Zqgccd-S1Ba6R0mxw4-KqWqw4z9LHectXm5-tyiJEil5IjvH34gLvLFN6hc=w641-h641-s-no-gm?authuser=0</t>
-  </si>
-  <si>
-    <t>Casa en la Zona Norte</t>
-  </si>
-  <si>
-    <t>Hermosa casa con 3 habitaciones y 2 baños.</t>
-  </si>
-  <si>
-    <t>$120,000</t>
-  </si>
-  <si>
-    <t>Zona Norte</t>
-  </si>
-  <si>
-    <t>3118208920</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczMNBbGN4xVS4Eneh_S6zc3b0icMeXJCjYT2k5zwOqLWOhwUqm4rK6ktv6cpY2QGk2eoMHxA9tQRa1tlVjOTn3MDLrPU1VpJmNyH0Lqc8KXQvZmhbzBNEZpB73TOmkAwql6RZPYaf_1PTgfk0jBkRBA=w641-h641-s-no-gm?authuser=0</t>
-  </si>
-  <si>
-    <t>Apartamento en el Centro</t>
-  </si>
-  <si>
-    <t>Apartamento céntrico con acceso a todos los servicios.</t>
-  </si>
-  <si>
-    <t>$385,000</t>
-  </si>
-  <si>
-    <t>Centro</t>
-  </si>
-  <si>
     <t>3007111204</t>
   </si>
   <si>
-    <t>Apartamento en el Centro3</t>
-  </si>
-  <si>
-    <t>$285,000</t>
-  </si>
-  <si>
-    <t>Zona Sur</t>
-  </si>
-  <si>
-    <t>Apartamento en el Centro2</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczNIEa6pyI4ye_XZIy-MqbFm8XfBKDKNalmUQiooHqdvfUWnd0DJKLHmE2kUB9EpZWvJ6CtejnXvGuV0GqZxzoRqsDEBiQpgr96rjSBrr5xgdbY_-0PjiCSQOHy_6H3R0ttMPZFQQcpCmxP7kaRcZFs=w641-h641-s-no-gm?authuser=0</t>
-  </si>
-  <si>
-    <t>casa norte choco</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczMkkNpBpTB7Bn8DmvgzvLg9S_zQnPBr4CwamFy8y6d3Ybgn8KAxZkN_qUG_ebR1qxrqoUnEscQ_2tOOO7lXAcnpWv2Nn2dvDy5eFAY2kBFlx_NrwA6M7B-Afqm9gRT5G4dngEz3VJ3KFv9DMAQMuso=w641-h641-s-no-gm?authuser=0</t>
-  </si>
-  <si>
-    <t>$195,002</t>
-  </si>
-  <si>
-    <t>$95,003</t>
-  </si>
-  <si>
-    <t>$90,004</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -130,48 +67,15 @@
     <t>5</t>
   </si>
   <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczPSBPC0ZLLK2vqpaVXbZI7_OkJtKQEKWkXCMEOR9enOBZRLpa-4cxav6fA9eSPEnGMb9n7JYOQnjA0oRLgsmE8ZveFEnXdQY4uah0Ekdcoa64JgFIB3ZvxJ71DkTVyEsFsqs3nQ5-bdxzeGerFiTRk=w641-h641-s-no-gm?authuser=0</t>
-  </si>
-  <si>
-    <t>$90,000</t>
-  </si>
-  <si>
-    <t>10943</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczNj3sFMB535VYnbTvkX7MxzLSzK-jVTfSpfyB1Mxb4sTQdiwfMkyWOX3vFwlysOUxnflHNhaanVNocmfsOujc4aQ6ICAmjLnXNwQWx4j3iD6IlUiSLsVbOR_oo0zEm-vJ70yzhQle0vj8SnA0HVpl4=w641-h641-s-no-gm?authuser=0</t>
-  </si>
-  <si>
-    <t>casa campo</t>
-  </si>
-  <si>
-    <t>$900,000</t>
-  </si>
-  <si>
-    <t>059833</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
     <t>foto0</t>
   </si>
   <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczOmKW2FdABLB-4Mhh5FMaoMsqrY1O3dSmy-bgG_wLeJWWrGstii2XZ2avqrv0o_V61xa8rAkwRCK0J1V8j2awND0N2jla9huMSL4bZAlL78PXscoq-IL3Upm7KvE4AbeY_h5PkSzMF7KgeKr99-hd8=w641-h641-s-no-gm?authuser=0</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczPWSQIo6fpIDT5tvDT7bUato_-fcF2X2FKaPBHpNwN4GXK9WXygwxwKXdzcNZc2ZGw3to5xaL-8h7V8Zaq03B8PdXhMf58UGMlFxlEWEYZRX3WOZVgcgarq5Fm50vb5HxwmzbrJf3s9Af-JDd49a5U=w641-h641-s-no-gm?authuser=0" alt="Miniatura 1" class="thumbnail active" data-image="https://lh3.googleusercontent.com/pw/AP1GczPWSQIo6fpIDT5tvDT7bUato_-fcF2X2FKaPBHpNwN4GXK9WXygwxwKXdzcNZc2ZGw3to5xaL-8h7V8Zaq03B8PdXhMf58UGMlFxlEWEYZRX3WOZVgcgarq5Fm50vb5HxwmzbrJf3s9Af-JDd49a5U=w641-h641-s-no-gm?authuser=0</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczP5Zp6lyrH1aTyDqVu1eelsZfWgYXwkjxYCeRGWEjklz-lxeQDli82BktzQ-JnzE9hybs0is6qRPt8fEmYdF89rDz9CkE5Ax6PLqF_ewpSVSQezswv5YviJRcW0KYesOA7kqmReyyLJ7UprrRwuJLk=w641-h641-s-no-gm?authuser=0" alt="Miniatura 2" class="thumbnail" data-image="https://lh3.googleusercontent.com/pw/AP1GczP5Zp6lyrH1aTyDqVu1eelsZfWgYXwkjxYCeRGWEjklz-lxeQDli82BktzQ-JnzE9hybs0is6qRPt8fEmYdF89rDz9CkE5Ax6PLqF_ewpSVSQezswv5YviJRcW0KYesOA7kqmReyyLJ7UprrRwuJLk=w641-h641-s-no-gm?authuser=0</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczM2TPp7oclmItVHti308l59UBmHGb1DA5VCIPRD33JJSe9SA2FaHSMw0rkWVzXLdEQYTy0Sb_cU_pLfIS0P546Q0cIdA4PRoVfWKd0__uwbetI-_go_w43C0dWo4gOD-fGVY1O13Dyfq4PAGJQj2nA=w641-h641-s-no-gm?authuser=0" alt="Miniatura 4" class="thumbnail" data-image="https://lh3.googleusercontent.com/pw/AP1GczM2TPp7oclmItVHti308l59UBmHGb1DA5VCIPRD33JJSe9SA2FaHSMw0rkWVzXLdEQYTy0Sb_cU_pLfIS0P546Q0cIdA4PRoVfWKd0__uwbetI-_go_w43C0dWo4gOD-fGVY1O13Dyfq4PAGJQj2nA=w641-h641-s-no-gm?authuser=0</t>
-  </si>
-  <si>
     <t>contact</t>
   </si>
   <si>
@@ -190,48 +94,6 @@
     <t>foto8</t>
   </si>
   <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczMe6BrQSnwmlvMNtqKcif0LLcdKm3eOqIUA4iSqM2zu2CCEEZGInsUPiCikVoSJW2O_cVS0fFm-J2JUB0ophPagJ3yId-ExPqwq6L8fz95W_kTGha6KHAaRMBqwWC3M70y5AidtZp9MJq7H_us9MBQ=w777-h641-s-no-gm?authuser=0</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczOeLAKGI42QXf_n67dflTq2CTBHEQWzB5MBxTL13UFjPok8gy1s9GwrsIicsknk0S0u4Oa31kN9mlGFVOqRIOMEzW8_FpfdAmL4klwM4r1YwXOy5pnHdbQWZPhn61BvJphRmfWBMf0AcHIIrmkKqYE=w702-h641-s-no-gm?authuser=0</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczOtNU4ic0D3QZ1t23cKRijP7o9SDt4R2aIAUU5UwhxyxR9P43pO7FLLfgR3mRMOLt-Vda9ZW7TG1T_uuQmTJrisb4WgVclM4Xf0elSUGRE3Xq__JKcxTEaZQEn2qQ13Q6VoU4PDv5ZhySqZwnc44L0=w641-h641-s-no-gm?authuser=0</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczPlOzw5WaCkPi44tCyDfxAANP6we_xORgDFoGIS5gmshecpoRlwidl4HjMZCZx-eeuVTGam9Tm8FxBxHw2o7PEaMam3vH0Q7wosUzr0QsZxC2gl2psiZ2ZvBUF7Fijo2eP8zVbezZDzQYm1xGdB6BY=w641-h641-s-no-gm?authuser=0</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczMitd2vnvxkfOZlnrvno1ThcIg-xL69FWB0vYcXGruGLWu9uMVvjh0yIBYVXfLOvzYohSDcFijk0LLExHC9Brjj7eg8n07usNlATVOKgwRoKq-rQOkB0kNn4ZfTWJHAoBiVtohrCHJrSNZLtfDpnG8=w641-h641-s-no-gm?authuser=0</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczMBCvW_WE449Y3qZ2F_MEggr6OXEuXrTB2e0UiV5nLsUSFUcVhRhq8uMNQm2oz4Xds62z087AfDqXK2ZiXp6O1emrN6WcSeu8O66vwHYW1W4BN0bGL19X7usJgcg1jUeXCR8LW2r8lJszZsnH7G9h0=w641-h641-s-no-gm?authuser=0</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczMy8Vr0XnYA33POHox9KgzpvWtsRCLys9rHzTnkN0-yLinQx1cITHl0ocV21TlMfYfhoCVLx5wHyZFiWAlqdJe1gO6AbEHriZLh0IVM1_8qVqSdvt2dCsFRtMt4vbv-NqagFRjF97HrE43zQxlv68M=w641-h641-s-no-gm?authuser=0</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczO8VbjylXNx18Yb3x4lBFZXvmYAjD0Cn_p_5Jwu7Ri1WgGCvO1OwMvNCh8U7aJpBVjlRLlKoEbf882_dbGGTvwrN36A8sdHo-6UqSgKC3YMt5cn6gBAEyL3yGN4oBYySXJUdM-hXEB--cfxu4RJtqY=w641-h641-s-no-gm?authuser=0</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczO62sit25irT9mG6u_llV2EEwwWL5OK3QqtMSgSKuZ6cZ49u7U3F3KmeRBlGjlKzquo6lk1qT8Di3LZvXlvb1Qr_SlAoBcXhwL5JaU-cMMA7oVlRv4D3ywEbes3PCuWyhAgMlOJozPxVjs5UbHJ9NY=w641-h641-s-no-gm?authuser=0</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczOFb9Fkdf8bLGU7kyxPWOKzYTsyoBZVN_l3rSETUdZwiAsOL38Yvpl6zSmm3FWp94BUNCua58-0IXzJHGgDdH8EuN67Z4Uqef7XD_a5DFR6rvWYIXPfpJMGoUxqP18nFj1OT3LPOsy1qrNkvyEWkdE=w641-h641-s-no-gm?authuser=0</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczOiUBfYmQAgYNqXKUnFBcNhEL90pegQ3FkBaQBML9BzB-ZKSO57pYFx8psqu-1l06QnH_3ADP7JJSp9NRcZJiXJcdqm0estuMKdug3fXYyPTUy3vEx6YyxHNoGEth_ifUXaWz-AGy6C2AbrMpYNff4=w641-h641-s-no-gm?authuser=0</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczNe4KSarBVt4tmkCgKWl661jKnoKXk0o2sInqZpll047_9i8l_ymE_UrGqV0kVTTTv4b5j1Nqs_wYnqpVU2f0E8N5WLdlVNRcj8egxqo45UkJj9ve6QBnr4audehH4R8XSNj8ZhrckH__uy5RHXwSY=w641-h641-s-no-gm?authuser=0</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczMpJ-wEMl2D2igUDTfu2rBctcvFKDZ9cG9GjRrOySzuX2vDmPpudtwJLTWP_T9TupKS5n5NJh3QPQvAs2DNVNpiaOpdT7Y2OlGCQQZV47hLPjKuJsTyCoZIIA3-WOdpmtX_LC-rzzXbpdZaI2wbI9A=w641-h641-s-no-gm?authuser=0</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczMuWid3grIDZ2JdyiavRy9PqAKv8MdJeh1oBecSr5ig54zIjNYQGpoh-xxySxPw6uGPY6TuIGqLhiB6Gr5hqxnZUz1p6O9eReGYF4Ovv5beAN20H0275BBhqRZQoHWW0h4phDTBgIo6I5Gat7_zMDQ=w641-h641-s-no-gm?authuser=0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -263,6 +125,282 @@
   </si>
   <si>
     <t>$70.000.000</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczP9ZktgKotf80TgSDl0AUlr7rBZecAA8QP5gYB5O7AG91naqG3lpz7XTWvJUG-BrbV1tc1HzVHfWz_gcCrEm9_ChY8NXEdtL7ldBkg_SGqIv2byrw0jClFRgaGTGX3T2EXasT3QEoNd7U_F1LpMz74=w483-h641-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>3117038610</t>
+  </si>
+  <si>
+    <t>Apartamento Tercer Piso</t>
+  </si>
+  <si>
+    <t>$130.000.000</t>
+  </si>
+  <si>
+    <t>Apartamento En Medellín Tercer Piso, Excelente Ubicación Calle Ancha Sala Comedor Dos Alcobas, Baño, Cocina, Red De Gas Balcón Patio, Mide 55 Metros Papeles Al Día Escritura, Pago De Contado</t>
+  </si>
+  <si>
+    <t>Medellin</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczOxkL-05RCM-LURblasXGyCgRJxr2nar4v8lLMpIga5_cy00FJKY0vApMGTu0dg_rOS7YFsNHDe2AYydJIfhIOzBekeqpxzOCMRiDoQSuzmzIc0LSj2c9_bJcpW6PYbfFpA8ZrwWVkCskXix-s6rCc=w483-h641-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczOlqfsG0LmCSK-l2LnPrnAnqwoRvMhdyhc4ETMGTD3b2aQ6xf7VcsCpHa0Qx_GstVjAkfyDFxL9njIwy7E2Uy8zqbLDPQiMWceQdellhdsDbhoGYvDwpjLIg1oAPtuRrfOy2AgJW4m7Yw2Rd-SU85w=w483-h641-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMFdyQcs6RuyZCaADDuo0HPqA80f8rEOUNyl-iHTiz4l2Hja3xj1oa4TBJJ5mlI8U_0pd2XB9veJrmNJoaOSsYEmXlWpGIUJDYkwG2gdF-kRDhEXf8ydWpgYgjMZA8xMGwAckq-PRDVCqj7GoMW0k4=w482-h640-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPU0d7G2q_COFwYNFTCAhBo841P_9O2LMutitgF2JwwcTAPS3lBVZZZkuFFHWqLkoByAvDmp0h-vzvLd5VSHRzxKC7HaFF6PqzERWfV5VGROFqVRptLo9tCbdcd9tcl5-J7Rs6KJEWSOZe3XoST0q8=w482-h640-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczO0oZhbLRxaGD2fIfwzilo7imshgvyxV3jGBpLcScW5CqeEDJ24lSAUTq3RpoGM3KlXcNViGnhnD7ykspVhLw_YDzueR4XtOHmmP1fhTFr64Q7WclojmvduSXIk6z__eRHeOAP5YGFzGXaf-1BDxQ8=w482-h640-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMumFW8A7O3Dd9cWd9dnDOD92lRVWhU4syVnEE7GCWHFCe7rNh1DY2CdaBno2eTFhuud8_kg3GOlSIHllPaq6et8dd2ZVUUyVg0odo9R82lP-i0IwNMxVsTuJF12IqlWCY2XYT3iz8jrzeltY4YW2M=w482-h640-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPYTbOJHtCRMtzDC1jyHdcKluPrVghrC58Ds6z04yh8PnQ_0ziA6-bISRwciOwYOA5FGMWSeO1ocIq4shTrcP-_ampKy510Jgg0LkOOSVhKDhXQLyFTW_DH9-67lFhSwEVnp4qfwa1ZKq-odlQFysM=w482-h640-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPbw22midrQ_asp3w-SBATsjxynoggtX43heGIFpmBTCaEkyrx3wB9RY6rvn1FrF8x-Av-10giBFM_hm15AMuCRmZi96EJsTPNVBPCU7gSMr-8KIdd7CPZngdnlcpTi4jcLFB01xgq63GjvDLKwpFw=w482-h640-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczOlqfsG0LmCSK-l2LnPrnAnqwoRvMhdyhc4ETMGTD3b2aQ6xf7VcsCpHa0Qx_GstVjAkfyDFxL9njIwy7E2Uy8zqbLDPQiMWceQdellhdsDbhoGYvDwpjLIg1oAPtuRrfOy2AgJW4m7Yw2Rd-SU85w=w482-h640-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPVRo2JSSMgUIAbp1m4n16087rKlYzSEwKMAjIZJK4xaVuoN-xgAZEhs7FHEaSkM7XPWnXRMWriyBl-eU-Hec6TWNDm9xT5pQJMclvrX2a5N9NI0MmSjPRZbfZnFkPmBVDN5pDi7G2UMAgtet4LmHQD=w720-h525-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casa de 1 Piso </t>
+  </si>
+  <si>
+    <t>casa de 1 solo piso en guamal meta. Posee escritura publica</t>
+  </si>
+  <si>
+    <t>$90.000.000</t>
+  </si>
+  <si>
+    <t>guamal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casa finca en fusagasuga vereda isla baja .10 minutos de la vía arbelaez, casa de 180 m2 y terreno de 2900 m2 </t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczOWMleEB2kMsIBgi-N22ELtCEf2-W88FPmxxvS54Om3SzoZA_Mux9-PJpVEuHUTwB5owrZoK07Y11Hsv0eFXRBFmicHuAAj_PkfwnyT7y2jPNel2TGWqA6NOFopegiz1phz0GNX14G8zuiTR4hjc7Zr=w711-h344-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczN5x7Ymg-fyqNzmh0g_TatVH3RVCr6qSe1P7P72ZcE65qxXa953JsXEjPxnf6be_ajk1TAhWU4ajsPIac44Ruof8gjdc2sWhgu9uinBIF0omtPghqE1z-fLjyELe_1q7Ak8S-VGQ45_2ZJppYXLx-HY=w242-h234-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMP_80uetQw6RAz9M-kwzc1yEieMK69eyp1fTKk44Us0v5c7N21RN2soskc5d93-qUJSfY5t4ZbjBq5xGxUEfhnGiwrZcGZyeKqSnX3IWtPRdupD29vpa6zAPHWrl8KTy9Aa549miWwQ3JmcIDg_FXX=w681-h223-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>Hermosa Cabaña en La Vega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermosa Cabaña en La Vega Cundinamarca. Área del Lote 263 mtrs Construcción 100 metros en 3 niveles 1. piso 2 alcobas con balcon , baño ,sala, 2.piso cocina ,comedor y un baño, 3.piso cuarto de lavado 1 parqueadero, Distancia del pueblo 8 minutos en carro vía en placa huellas, Escritura al día </t>
+  </si>
+  <si>
+    <t>$900.000.000</t>
+  </si>
+  <si>
+    <t>La Vega Cundinamarca</t>
+  </si>
+  <si>
+    <t>3213257314</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczM27YM9kDUTC1nAphRh8CHLIO8kd0HgNkA8fhGcgq_Ex9jHgPf14O6gi2EGuOQuDxhLw_XDRYsmq_o-IDP2eLYTa19ULe2l2lYx8r5yp7qM1-fDnt8zKaEz_zEmG_W9Gkn7TP5XSUAaXR1iZl-2kd4h=w681-h513-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczN4kYvUbcLkj9vjsB8NnY4ZSQtRxr0bOCSQkIccNufR8v3JBuhnlQo3fXIMBeZNuiQVwMTCyEsuHcJ6vpweX8dtYldxBzlD7DplX7AW0uxmkBJWocSbYkB2P2HrcZ1hooMFBEED2s7wsrJxtsRIayFX=w681-h513-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPfasfNk5EKW2cj8nR3oEHQ8o7dujB5bS18TZXkZ4X1eH_6WmxBpT_BkC7xk7IJptBKpqLjzYQ1FahmNhNkpZqdUp0YGjkSnUFO90qveRFD3PerMbsL8X5UG01Y5DVZ2taBQRiwTrj3k5rLAR0YYnWb=w681-h513-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczNyBJ1ceEOW8R9ZMDDC_onKd81hP5xn3_xUiwUvLZyifCgQ5A9HDPh_EHIX2EbkjqZighhIJfQpN_4LNM91j0H2IhZxkTu_q91ufFCFK907LfH1oIZ5SVvulSAqE0mVsy8LuOyuCppwQoUNpEvWuxf8=w681-h513-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMXR9qMcFtLv4wwjyNbwsgqa6JrLEyFa20RdR9ohSz4rBmjXrUELmfIleCIPcumcyNKl3Ctz3YEZAcvsd_o7I5qrHkN0rT4Wuva5g7m9gqrCujovj7F2ouNXMHS5CzO_ZO2xk2lfZNjV3KaD4WYFppY=w681-h513-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPwxUgBWjumac2jKfUO2rZTiN8zNvTMaQhxTteJsZACx5x1_I5OdamkAzLv1Bst-RSZ49E-oYvcUhcNK9ZLDpdVjq9F-5PEIHUX179H242_gxr3azR_A6BEyT2ogWunl5OtGnmJlRgG46ZfhLmSKJ0y=w681-h513-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPpQ8FKX3Dhuikd4XvtwbUeXUXKHfvTjPm7eyZNK_epip5WQni7Q5QdIG69GXHTd8riIc5PajvyyhIa2OD_SUonKavOKXzeH3uBwO0l9BcmeeEY26hNmS0HSj21SZmjTWnaXGi_ndNUVjeN-Uu7CmhH=w681-h513-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczNtCLdA1VjIMGqRRSmuA83_HJcEvuXe6TojIDYbl52NpIww0iX5qG_XeEC-1DWX89SwPl6Kdar07xnnmf9T_2zxyB2ya3bAGaxvKxPTt1aNS0aFLbGiMko_AtAUdDaJqbSDrlxvaCifqa89e-BRfwFY=w681-h513-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agua de dios cundinamarca </t>
+  </si>
+  <si>
+    <t>$600.000.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hermosa finca en agua de dios cundinamarca muy cerca al casco urbano via pavimentada y placa huella hasta la finca son 18000 metros cuadrados totalmente planos tiene embarcadero para ganado corral Marranera riego casa </t>
+  </si>
+  <si>
+    <t>Hermosa Finca en agua de dios</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMcteQK7L4xWp0glMZH2H8--MDnLfQfew9d40lRPG6Qiz4nYvunqZEWEyyOmodYeJMYBQNBaF2AXnwTRVPBGG3L0l9KuIXloWthS7wM8bh9f0ukRtCmG1hQkCYq12ozyC_VbuR3zsYiKqhvFuMgRTZa=w681-h511-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPzik72hzQFuHjeZWa_Cl8px4qC2QWeVPet2rFrhwN2smllEmS-gJP20AbeuHrGDtaes-yDJgarO4IE4RQASUjiZqlNr-55EnxGxjd0i3Mr_BDRw9hhDQTbgG84W8cfxPkO4m3TvX3cviH-ITt55r3Q=w681-h511-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczNxFh2ARer-TMuk3O0jplGZ-1MMNpRrH3_Auww_Iup_D6iY0ahw3fYzj0Z7h_naZSMNTA1keI5KAdno7n5lCHsAgRvfNo5ItElQF8nmfLIMKfEKRUudW5sXn4Dvs2yDw-w8FV1a6GgYKBg38THOyrLc=w681-h511-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczOKs-pkwI7IvXxV8em7LyZSxhBleh56jOC5tJ3li4-Xq8zj_J_Myc6oUKwoTzk_rXXe8U-uoDDalCsUSzacfRETkhvMp52N5Taxqx8v_Lss86AugtaynX03TAV3E_9hVxpPDaN2nJWSvlMmBUxassPi=w480-h640-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMfVdQhTdbMxNqcnFao1zTEb9t-XFc0UYtZnxCWBTO2Tl-sIInd3QfLuTOskglvSGkedpgDYvqqEjRfQy-mHXkl5B77zk9l9-_JIumlJwN_akgQwAdvSZomtQmuMS1V2Rb1gQ9eczPeV84IqdzM-ftJ=w480-h640-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczN41dofKoRgQTTyJ-q7tcCJR2Q_ftu8mScXl5Pv5XV9HYuBl7qSRotmu0DG0OkasspCdJsQldrq4I1RnsnRiC7m2h7NNMSPb9ZM_EW3_MPlWBXee_B5fExMOrHlEEE4j4LY3jL_2aShMxodlyPIRZoe=w681-h511-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPfakc-n6tgVLi6r0hLRu3S8MXIQbPcstpDT_mUlnIox2ES-TdoDz8WpIqzL60c6Ys3_-CWRXoBvcb4WEQFRdjFMkYStcQjzFmlxyGQHgeOdzLgf1vAzjB0shFGxpUlBXCOU3wWWEk-9zrzqOVnB1v2=w681-h511-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczN_HmiJuYaJ2xSM5wxSNcWJJOvAp6PGRgqzI8dLuz99b1SQQ_mobwM7ZITUjkW7FJ7iw62SGsrUcEOZukl8KVjkcaRQV7hY4ASLoApwWqLCloeHZIcZhGYn4R5pW57PcK965k0VjRL07sOjC07yBDix=w681-h511-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczNaJ9NmJFw4zZ2SETHqERxSc4W23W8dakKHWHfnmQEJJ7AQmPJ0i5Cycu8CmFGW0Jw34wrzarisHUnvJ3lSV-o8HOYbEKXNHbCfgP4J8INZ7f3G0HyVZbg3xf-G7QEuuWRYI_zrPTIL1Xv4e2F_MEEE=w681-h511-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apulo cundinamarca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finca Apulo Cundinamarca </t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPzBUfKxU82k7-MMMI9rNjQlkQS-ydGD_TDrZWFHdtsyQhk_XxRkPb2YuFSTiBq0WGFzGtPfhcSh880bQziAad0D5dzjGd0yJPOIOTnYM0RDHdZnHKPLo08fWSh997LO8NaxQDZ06AqqwC7DsZyT8-7=w480-h640-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>$300.000.000</t>
+  </si>
+  <si>
+    <t>Fusagasuga</t>
+  </si>
+  <si>
+    <t>3125606593</t>
+  </si>
+  <si>
+    <t>$320.000.000</t>
+  </si>
+  <si>
+    <t>Finca apulo cundinamarca vereda naranjalito una fanegada plana muy bien ubicada sobre carretera, la casa es grande acta para negocio, permuto x casa de menor valor únicamente en Villavicencio</t>
+  </si>
+  <si>
+    <t>3123956045</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczOSYABBsdKisyVfBFF7BDG6AN-mOa59miKjDMbzhvn5CStoN-uqoKO7j8gTaQp71hjVii9-Rb5Qs2SYwZalYkaihI_QjScxVDGNRpGw0pISr7x9KiKMr8Ing0XpwC3TmmDnJXBEGY39LJX4EpvRcinc=w480-h640-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMrAbjPKLRM5GPftggsS8RwtFPSJmYdV2qGrxKQW6S8tCMTYvPRZHW1PkpQOGjcjG6uq1Zni6Ht2lTPqBymaU0FQBDNq7tJk5bajva_6qc6WiV7jv1cD2MUf6lkftomephx7F2rtmmstYRgRk1dBlbv=w480-h640-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczOYfBHpd0aqP4zXNHUpXX2KDzF_GOakZ-_ECo9F0ALlcvFvJWOlY4KGqBZeMlfuB-G0AeRpDkbKaesAfVaw-LiZAewXzWNl0dbwNHX2OgZDshJoqLnavU3Smeh30paa-ybgXZjoRfUleiYQoVl-seVF=w480-h640-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczOK_um5__feKeUx0k2AjXxTYvcWEEFxdz1H4LAgLjeumhWuzizs9xsTdJoFfTTk-HSb4tvlIJJCfJDDLk-TkYdVDopo2H2x7ga71hwUf78H-RyRiW6lq5aP_HML1k5ZuBuWGvdCQTJeyNhdQk1IdatJ=w480-h640-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczN9oS2S5voHPJTDiYkjIndHD2wFgoN1z81K7HpG-7aSx6crCmGgn_Whh0eV0a1KErhEEqK1ebR2vPJJ-HnVM4bSIcYgdm0DLV3iHmdw_1DTR-dln7hzEnn0uKhxt1n5dsd-i5cU1DhFBuvyqV-Y7DDM=w480-h640-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPxyO_vFFVbnAW2yHmGr0cdbEsVVlK7yGPn473lLOGUvcyKL8uPukOdf6MZIGQX77nHDiBw_eUJwL7ytnul_qnE7aZyJIn7BCW9BAR7UCoVBObkkZltvNwewpx5RX3ekwpMD_YEqmX0Mml4g46zgai2=w480-h640-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczNyi4N6V_9RBtY66YOi6yRl2lsZ7LUsoPCdHfXrAAOmfg_AG6WerCguUQasrOJnrk3sGX4aT0sM9iJFUNd-L6aSiwcm8XtLDkIouYwU3P2SXyxU5uvB8whZ9Ti5rH-LpNAkO92zdvLLlaThgfrP7KmF=w480-h640-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczNYFF5xncOpyJjOrr_Z3-OKo75xsvk75C5uHjt0BiFSa_n2HfS_NeYIsWM-VuyH1sVNaCHR-H0AA8DDtBBaU49FFq2jGSenRDSFe3mXkuRsJA6GyRTb4tDPopuLLoEsI-7z--kctSYwfzgB7VF1AR9j=w480-h640-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>Flor Maria Cespedes solo fincas venta facebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casa lote en caqueza Cundinamarca de 7x20 en obra gris tiene agua, alcantarillado carretera hasta la casa con escrituras al dia a 5 minutos del pueblo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cundinamarca de 7x20 en obra gris tiene agua, alcantarillado carretera hasta la casa con escrituras al dia </t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMNlAvmMyZ-fzdnvbcHKy35e1afW7sQgCfVqA_FrPX7KGs-7P9MwVqGbsXV758CEXQNjq6idsw867Cnqf3Gkryw4UMSQv5TVcEfuAvLbdqvLg247YaDzsaeOpWgXp37ouqcJrg6OPcRMUB5e-uaOK0z=w681-h513-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczOjh-WqFK_dYVanw0842lFQBvGgbY8W5VZSR5OB3p1RqyB154aQAEvTUiohfd1DbttghXa6ki_CBPXqhtWWtEcUGtelmCTYFEwBFMbW8LQTiBHesF4eofw1M3Ur2FbWCDclVAqbXeYjZ94E8kIDBhFV=w681-h513-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMZi8bzY6abGrK5cPCa6N4OdKyLnwwmYE7U8IcXQz4aytzS2920FEOhCU36ixBhJd5fTv3dtDIJz6u8-Bn7BzRE0mL6WmkyFAxlR_q4NwWUl26irlY2Ud3T74dT3FdqO9rZS-J2STF1_f_bESeKh8F-=w681-h513-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczOvr2n7VFXUOtqXj1b-3KU3R1IHC6rX-NNZvpuZEMywRkQxkbORjYCT01N2Y7k7aLzCifgX6khdpbPWZoUBVk8oAYFSnxAR6uY69tgKi58LGqMoNurcGBY9FQa1-Gn1DrjIJJfIBlpS4dfQ-nzrLs_Z=w681-h513-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>$140.000.000</t>
+  </si>
+  <si>
+    <t>Caqueza Cundinamarca</t>
+  </si>
+  <si>
+    <t>Milán Caqueta</t>
+  </si>
+  <si>
+    <t>$350.000.000</t>
+  </si>
+  <si>
+    <t>3102589379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finca municipio de Milán Caqueta. Se encuentra ubicada a 6.5km de la cabecera municipal, cuenta con, casa en madera, establo, energía eléctrica y solar, agua propia por gravedad, cuenta con división de potreros en cerca eléctrica, rodeada por dos caños que en verano no presentan sequía. Total Hectareas 49, escritura e impuestos al día. Actualmente el predio sostiene 60 cabezas de ganado. </t>
+  </si>
+  <si>
+    <t>Finca municipio de Milán Caqueta</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczOJkuBj5f-jFWfyMzmXjGCrFsjqJbsnLpl_-CGAbmfXFYnArKAtu09s_s_5tC8g2OMu9ZBusYHE3-Xg6BiFulHBUzNJlNly1tU_UAnxZ26NDsyadDofnF5Yw_CxmQy2AJY9dZEJ1GDL7TcSGFHKUVv5=w681-h383-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPgAm99NnMLbitfMpZaJ9FLCsWipuYsVu5JG3UvI95HxvgpVAZ5J8GIoj360O6-Vaje45KGoCzhMpegF2ZlT1svIJ-az-c8w_GcTmSDli5o9xxjZ4K7rOcBDFl5IA2kwUuZPREE_IY_SlYFfLJk3-s7=w681-h511-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczOusmR4ah_1w4nN4b6Pzw6pGANz3A9WDSIX9f4j6yGJxeoS5Ato1ZilCrozOUFZLfs3uxOTWsYCgslBzngh6C6Vstplb9H6P2TyTX-3HwxTJ8bz1dLS0g74bdkkC86WL_uneqRCSJ3DDYc8vkqxKfUw=w360-h640-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczNxHYQv0ADx8yi2jqRbvPaLJjGCPhGEzVx1K-O_u_FudJE-xqpdt-wNE7ymzKeDxsX5hK2qMpXvkO0c3pjGFC9RveS-cw8LoRtCybrfyrQ10fvfAHuSuPuTefFRyVOQYST8_CFAaEABwOh8ROAw37y4=w681-h511-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMB9M1togzTJd7nKuVeBHrNT_shwDwCSrJ37AxYEJCuCPXSipN5KotSgC_oYPxz3AbwHAA8bWGEo53RgdNxRYlPlm3YcDIEjFkMf8iOM1K0lcYCEw4QGCudrPmof3DPoKg2xb4VpHSUPM5GYswAuaUT=w681-h511-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczN6iHfXndkZw6PqPQkxrSX4Sf4upN4HLBSEITAdnOAOdH1A5NcoSBhS90MNjvIejHUD1l55sUbKTxtbbQYqlAAo_f2uQ-8fEi7cSbgawKUWyh3G5fjUyBHzesvbvODsnwt64NUpqxPwp8gbOuvXAhPz=w681-h511-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczOGs6Aq-AiEEhU9aqKAOal-yv1C8TymT4n8dAta04CANKmvi75ETy2nYSJWNbnWwgpKQO59dcuNIzDWHX6fUwZPga9IlZDgGjKv7Isgrle7eYeuPdNGOc8ynE2VvaMH_qaS9J3EZXd3UHPQmdDdYnBN=w681-h383-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPdZRhQi-wu9NGVr-_fL0uFOmtBJvXdbF5hP6YuPecKhDki4KIlC4sCkyPbTrqw0CQelteUbEPGhHCWtnmNOF9wK2mCDK43lHloR5_cMLcDGkjTdskPXV5PBbwPOm7rfozD3xDBPJez5fOmWuZ9U_U0=w681-h511-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMVx8AC7-de7nbxbdUVJJkEwtgeCB3OhG5GENMdyiVrlnqfF-EjogpCDXSFvf5Hngv9YZN6cabyEpkviSNOPc4Xw0wtloGKKA52-saiXpzFEeHHA-FElnKkA-tWjjwGF6eYuLkI4q3Mw1BLumR2WMak=w681-h511-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPetGoof_EHkT1kuDORSrhlLFW50Yj0ZzidQ2yPf77EKeqGDwKhIiyWffC-e4zfrM0-tHGAlOpqehu88GMRPcAwV8b272s5rZTCL5se9ylye2njPIiAYBllDTfZ1ozwxiock8QuCu3duV2l22AEdCrD=w681-h511-s-no-gm?authuser=0</t>
   </si>
 </sst>
 </file>
@@ -346,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -357,6 +495,7 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,16 +832,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>7</v>
@@ -717,16 +856,16 @@
         <v>10</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -734,55 +873,55 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -790,55 +929,55 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>74</v>
+      </c>
+      <c r="F3" t="s">
+        <v>73</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -846,28 +985,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1">
-        <v>23456</v>
+        <v>55</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -875,28 +1011,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -904,54 +1040,84 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="1">
-        <v>5432</v>
+        <v>40</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -959,28 +1125,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="1">
-        <v>9876</v>
+        <v>90</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -988,28 +1160,55 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1">
-        <v>56223</v>
+        <v>92</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1017,28 +1216,40 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1046,33 +1257,62 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F13" s="4"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C16" s="4"/>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G21" s="5"/>

--- a/propiedades11.xlsx
+++ b/propiedades11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Diaz\Desktop\pagina de muestra para UCIDE SAS\pagina de prueba15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CD11EF-2332-4BE4-A0D5-2C8F2F9CB95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D830D381-9017-4B60-9EF3-A6D93733811E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Propiedades" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="128">
   <si>
     <t>image</t>
   </si>
@@ -337,9 +337,6 @@
     <t xml:space="preserve">Casa lote en caqueza Cundinamarca de 7x20 en obra gris tiene agua, alcantarillado carretera hasta la casa con escrituras al dia a 5 minutos del pueblo </t>
   </si>
   <si>
-    <t xml:space="preserve"> Cundinamarca de 7x20 en obra gris tiene agua, alcantarillado carretera hasta la casa con escrituras al dia </t>
-  </si>
-  <si>
     <t>https://lh3.googleusercontent.com/pw/AP1GczMNlAvmMyZ-fzdnvbcHKy35e1afW7sQgCfVqA_FrPX7KGs-7P9MwVqGbsXV758CEXQNjq6idsw867Cnqf3Gkryw4UMSQv5TVcEfuAvLbdqvLg247YaDzsaeOpWgXp37ouqcJrg6OPcRMUB5e-uaOK0z=w681-h513-s-no-gm?authuser=0</t>
   </si>
   <si>
@@ -401,6 +398,12 @@
   </si>
   <si>
     <t>https://lh3.googleusercontent.com/pw/AP1GczPetGoof_EHkT1kuDORSrhlLFW50Yj0ZzidQ2yPf77EKeqGDwKhIiyWffC-e4zfrM0-tHGAlOpqehu88GMRPcAwV8b272s5rZTCL5se9ylye2njPIiAYBllDTfZ1ozwxiock8QuCu3duV2l22AEdCrD=w681-h511-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>Casa finca en fusagasuga</t>
+  </si>
+  <si>
+    <t>Casa lote en caqueza Cundinamarca</t>
   </si>
 </sst>
 </file>
@@ -484,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -494,8 +497,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,16 +801,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="19.42578125" style="1"/>
+    <col min="2" max="2" width="19.42578125" style="1"/>
+    <col min="3" max="3" width="38.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="19.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -920,7 +924,7 @@
       <c r="Q2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1128,7 +1132,7 @@
         <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>56</v>
@@ -1216,19 +1220,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>104</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>103</v>
@@ -1240,16 +1244,16 @@
         <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1257,22 +1261,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>15</v>
@@ -1281,31 +1285,31 @@
         <v>41</v>
       </c>
       <c r="J11" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1314,9 +1318,6 @@
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G21" s="5"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/propiedades11.xlsx
+++ b/propiedades11.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Diaz\Desktop\pagina de muestra para UCIDE SAS\pagina de prueba15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Diaz\Desktop\pagina de muestra para UCIDE SAS\pagina de propiedades 14de2025\propiedades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D830D381-9017-4B60-9EF3-A6D93733811E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801D231A-DCCE-4327-B5D2-E9A296CCFB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="140">
   <si>
     <t>image</t>
   </si>
@@ -404,6 +404,42 @@
   </si>
   <si>
     <t>Casa lote en caqueza Cundinamarca</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMyb2ke1xP-GVhgkCSZ0U_aCMEt3elZtBxLS-aDohCKZ4MHpsGX_94vsLsBXVmFRPzLVQu5bQLm6pnJcIPFcwggz-8gefmjggC7SLZXkHqc9OMWi097xv8tpLsMlHhG78U3DH3TxHmuQc7ITz52i1jv=w1366-h616-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lotes en la peña castilla la nueva </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lotes en barrio la peña, castilla la nueva. </t>
+  </si>
+  <si>
+    <t>$37.000.000</t>
+  </si>
+  <si>
+    <t>3112697159</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMtVnPP9S1H9RxqsK1GCYhJmVrfWHfXsE7xHstsx8750426Ansv6iRbwCLUIKiK-aQub2iIGO8k0cj4DFDZg36zzjCw_0toAO0hovy1dJUNURmVCuKm2MuTrUq6drMKaFdtuPmWY6NiPqbQZOu4J6o_=w1366-h616-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">casa Unifamiliar de dos pisos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">casa de 2 pisos Unifamiliar ubicada en castilla la nueva, barrio la peña. </t>
+  </si>
+  <si>
+    <t>3203441513</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPSPCQQ7D1oRpABVoSf_K0yMHseMxJTT1nCMlQiPR4QzB5dmG24KuhZC4el1DHuCfbUcSxt4KD45xtoqfHwQTyTpj9lJHcI8Spk54pomSOfPSvdmff7ahXobTOnC14bBMUN0QMXoM_IwY1yd6sWiDuI=w289-h641-s-no-gm?authuser=0</t>
   </si>
 </sst>
 </file>
@@ -803,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,8 +1348,72 @@
         <v>125</v>
       </c>
     </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F13" s="4"/>
+      <c r="A13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>

--- a/propiedades11.xlsx
+++ b/propiedades11.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Diaz\Desktop\pagina de muestra para UCIDE SAS\pagina de propiedades 14de2025\propiedades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Diaz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801D231A-DCCE-4327-B5D2-E9A296CCFB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4EB317-F19E-4DCE-A2CE-88C720BC9BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="195">
   <si>
     <t>image</t>
   </si>
@@ -440,6 +440,223 @@
   </si>
   <si>
     <t>https://lh3.googleusercontent.com/pw/AP1GczPSPCQQ7D1oRpABVoSf_K0yMHseMxJTT1nCMlQiPR4QzB5dmG24KuhZC4el1DHuCfbUcSxt4KD45xtoqfHwQTyTpj9lJHcI8Spk54pomSOfPSvdmff7ahXobTOnC14bBMUN0QMXoM_IwY1yd6sWiDuI=w289-h641-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/557544977_4176575145957124_4259443347389868479_n.jpg?_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeHLn4YcaY-z0AsUxejl5_ImI_ybybBjWxEj_JvJsGNbEcjyU2uMcPLUtGV8KebkoqosW5Fi2-xf9_HwS63BvNWe&amp;_nc_ohc=2UBm2DgF6sQQ7kNvwGZZtwe&amp;_nc_oc=AdmEy32G3hoOBSuf1jjhUcdTkm5RoDweMODgth-kBG01zI7icy2GoZTkfKjq0POyMeM&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=vWmVbuy9nVSxwrnku6ZgOA&amp;oh=00_Afe0Artxlb0QMED1VSriA-YdKoggLCAu5SmeK79EALZUOg&amp;oe=68E4CD4C</t>
+  </si>
+  <si>
+    <t>casa en Castilla la nueva ( meta) barrio villa Jhoana ,vereda violetas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se vende casa en Castilla la nueva ( meta)
+barrio villa Jhoana ,vereda violetas 
+todos los servicios gas , luz , agua
+también jagüey y alcantarillado 
+3 habitaciones 
+sala comedor amplio 
+cocina 
+baño 
+patio atrás destapado con su lavadero
+las medidas son 9 de frente x 12 de fondo
+120 millones negociables solo efectivo </t>
+  </si>
+  <si>
+    <t>$120.000.000</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/556967426_4176575332623772_390993814443225613_n.jpg?stp=dst-jpg_s600x600_tt6&amp;_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeHSL2P6NwYR99LfhacMiAkp9EET0LR18yT0QRPQtHXzJDwuEz_9ERmiTz8dl-pxkF0YNJeOrvmKRunpvEKfHigt&amp;_nc_ohc=0nT2KWogSjIQ7kNvwFupN55&amp;_nc_oc=Adm5yTg0uXl_0dfzwtMuUxwsI7DYCd2WyuVZu_L4P2egBDwtVzK_-KN4m7UNwq3KsNg&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=pxPAfUNa9F4f0CfLCiX1bA&amp;oh=00_AfdWmQP7ONgUfvm_B9Y27xaOFiJVfzkxJ_oLP-yydUqlJQ&amp;oe=68E4D046</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/558954634_4176575119290460_2854739066572531832_n.jpg?stp=dst-jpg_s600x600_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeGK_DUIJ9VeaQaoM5BKWr7NDQtNGcjV_C4NC00ZyNX8Lh1fg-icqiWYcDSisnJUt-VBlpzIs4MpqdTa3-IXyRCS&amp;_nc_ohc=a0aRFoG4yZ8Q7kNvwE3x1k2&amp;_nc_oc=Adk3sDN2Uh26BZ5rjCQAhGGJ2hxBL32mnaRMkokZbyjjMM8197J4dItDNaVn5Hv6RIE&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=pxPAfUNa9F4f0CfLCiX1bA&amp;oh=00_Afc1uV8NLvp1bVd7E8rU0C7HgMTX-I2HenQSraJES_brFQ&amp;oe=68E4E039</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/557485246_4176575319290440_6751571673203368931_n.jpg?stp=dst-jpg_s600x600_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeEClkVjfJH6mdQ8EC2yL7fTtiuCL-DMBnm2K4Iv4MwGeV-fapFZ36FfUbVLFk5EgEvZxX-Jz4QIZd2EegCuIcb5&amp;_nc_ohc=wj--0bZJrJUQ7kNvwGc1ZiO&amp;_nc_oc=AdkQyM2OrJjYukxbtJMUdz_LRoGmVxyvZ8clmItYS8QjAnoXkdk4Hms-D_Z3a1OTLa4&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=pxPAfUNa9F4f0CfLCiX1bA&amp;oh=00_AfcC6Wb0P8DHSsQdTVHQSM9SDgc4kS1J9-0WPgxhqn-lhA&amp;oe=68E4EFA8</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/556899710_4176575139290458_5693057452005474486_n.jpg?_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeGx2oHgP0ZFysvk7Lwq7BDeStypeRDrYWNK3Kl5EOthY5tPFIkxoku3iNLN1PBCbP5ewI0-zI8gtGrFdyqPjGDQ&amp;_nc_ohc=Prv-CMn3v38Q7kNvwGDrUon&amp;_nc_oc=Adm_K1KGRviHYRG-oF3F809Z94n0n4ebIF5KOzCMEVvdyhLpGGrL6MPRDA9oap3qb6o&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=Z3cg1trIZWvc8rZiC_nTLg&amp;oh=00_AfdY5F0vGWkfLdrdVwGqqFZ5k_aVf_bkeEd6WMEG0UGQxQ&amp;oe=68E4D550</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/557595258_4176575185957120_7506929769085752298_n.jpg?_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeHO9fsZpd0tqW6LJCQZTKK9OdYsUgn4ebU51ixSCfh5taPCpng2naWYmMYY2Avt24ztCCNup4wegI-2alDjNylc&amp;_nc_ohc=LRAOC0G_rg8Q7kNvwFK_NU5&amp;_nc_oc=Adk26Dvm3PwTjo0xSJFBSBrsWwmM5P0az7Qx3wc65u4fthyKPZWlOX5X_vk1gqxIWYk&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=XBFJzsMVGh9RP_AlQeB8jA&amp;oh=00_Afd97vN6ngTREBZhA7nNBz0i-c3PM63dh37HoEtSe61tUA&amp;oe=68E4D58B</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/556442614_4176575195957119_3019956338557184746_n.jpg?_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeGKm1mhn0r_3cqzHPVcDO1ZFe8obK9Mla8V7yhsr0yVr_JE6gj5dknVwa63yfTmEzktr45lTCtWIngH6x9X9It3&amp;_nc_ohc=d_eXpeJjcOQQ7kNvwE_gbir&amp;_nc_oc=Adn5PwZ-KbeGEx0Kf6KjoyLN7AbA08alzzUuBgxr6fdnmB3KRluJIJ6_UkZzFo4_nbE&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=ZvL4ZNVULtiaOE2my1k0iw&amp;oh=00_Afd8EpilQYZywzIv5x1QMYebN5iqB4HoFtQShMW844ja1Q&amp;oe=68E4C70C</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/557129869_4176575095957129_2543590211948881370_n.jpg?_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeGvi6Hti-HqqELDhJ4qArIwrO4OysQixUGs7g7KxCLFQRSfSFlFKQ_fFMLaXvDYd_V_WK47ekXlmjQdCFcS28zx&amp;_nc_ohc=ee3H94xWc8QQ7kNvwEjNydR&amp;_nc_oc=AdktxymoY_80N5adZYEBY1n3_7xo3ZPwWi7ubfVN0_CpA2K7cAtQEBQjfBR12bduYSo&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=sfqBk4CPdHKXhiOqY3txRg&amp;oh=00_AfeGAV8COXkRiIZ5ptGJyxIsMe65iD90prnk0xsjhyhUOA&amp;oe=68E4D7F4</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/559043008_4176575175957121_1505972122601713735_n.jpg?_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeF1o5NDp-i86_x81aynh6yFaO4fc-Q-cJ9o7h9z5D5wn3yXesNJDc7Re58uh8ga2iXiwn_8Iv9EFuMaXbp0fP84&amp;_nc_ohc=ywseY40q_m8Q7kNvwGwTUxq&amp;_nc_oc=AdlreuweUhMBAvFoPj1SKI2wRFBhnZi21vkSVrFAnoOjevmRwq-QusQfZWVO8C6P68A&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=z1gG-FwXjUIew2FDLE_Wjw&amp;oh=00_AffzNQKEWALZxS2ztHlbPIpIw8LFQkfE1H_D4QjERtavyA&amp;oe=68E4EA8F</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/556930284_4176575215957117_3837146499798558378_n.jpg?_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeFpZseaPPknnnof0IMMGcG-meFFn0mrbhqZ4UWfSatuGgyqBzGAwdOCgZYDfgaRCmgSiFQAj2nKVo-gYFe6xYuF&amp;_nc_ohc=FIstZQPIVmIQ7kNvwGR1TL8&amp;_nc_oc=AdlyLKPQP5VQDr4XNZUXQQeAdw6Y9thtQv4A4sWLRx2kTaEb9amUE_OIgsdPhKvCEFI&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=hqZJ19r3Ylb8gDc-xIUdHw&amp;oh=00_AfecNxSHxlEos77tb25aggqnm0tS_D_586m2OAeF_FKlNg&amp;oe=68E4C0D3</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>hermosa casa campestre
+Castilla la nueva sector caño cachire</t>
+  </si>
+  <si>
+    <t>se vende casa barrio la pradera 
+Castilla la nueva 
+3 habitaciones una con baño privado 
+1 baño social 
+patio amplio con domo corredizo 
+sala comedor 
+cocina
+cielo razo en PVC 
+el frente está techado y con unos muros
+escritura pública individual 
+todos los servicios 
+están pavimentando el barrio</t>
+  </si>
+  <si>
+    <t>$160.000.000</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/555904523_4171382916476347_1219298551067445229_n.jpg?_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeG-a5j65ND4tHehPtNN3TLTQIDpCHXECh9AgOkIdcQKH2pbKj5GAIts1euC3F7Sht5pWCs_6Z8Ho34tKD6_GIb2&amp;_nc_ohc=obNBmyI567MQ7kNvwGgpzCS&amp;_nc_oc=AdlDWqFgmVtmLsxoPXBOShQmrb8p0oQhUdd7KOxTLFa40QZcSXkmB_iZk4FVCuUGJBk&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=rV9ewjHqwb0-m9bw_tFS6Q&amp;oh=00_Afds8R3P-SYKAkEX5W3zGuRQIX93g-Zg6gOlOTf95uZZgg&amp;oe=68E4F6A1</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/555026085_4171382913143014_7875832086526415184_n.jpg?_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeEOUTh3LwNM9gsg1b7S7FAWTJMzuEKrP3pMkzO4Qqs_eiDh6kHvVJLGnBAYAIiOHhk-F_n2Q5YUnZW_dKUaMyzS&amp;_nc_ohc=jYLD2U2ymskQ7kNvwEIc8LL&amp;_nc_oc=AdnD58kv2DYBFRAOwwht77QOTArlSldTn4aH4AWMoH2uBy1kIbJDDhs2BAIvp2qTs9s&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=I8fBOYLZ9RiVHqQ_nd8E4w&amp;oh=00_AfcrJE9dV9x01zyDkfcRpgcUqK49n5Z20yvn3F6ISv5lsw&amp;oe=68E4EFE8</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/555588065_4171382896476349_854809068447859265_n.jpg?_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeHT4xenP45Ai69CmUm_HQlIWzQs5JXTsYBbNCzkldOxgHrUHSWFq_9kLHO0vd0PhAEggJ-cXLUMVGOvEfDp20uF&amp;_nc_ohc=UDQcR43GDCIQ7kNvwEvD0LX&amp;_nc_oc=AdmcovMKWO-iXxog5iQ9Bjxbsfsdg9dctgVmu9gS41uRThzJXhZj3DpBL1PwPUXJA2I&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=X6MaBE8rMzo5IKlM5M2Y5w&amp;oh=00_Afe3I6WjjQYZvQh67aZbwKvPQBGH-K0bdi1iHf-V7wAkRA&amp;oe=68E4D6C5</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/555523522_4171382893143016_1665805578016171868_n.jpg?_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeFCtE6REJ-GDqfgyYlyWu3zmYuQLgBHdT2Zi5AuAEd1PbkGlwUsLwLofYbaW4MBqT-OWSlDJVVfX83389mrc0uj&amp;_nc_ohc=hUToiwCwaTAQ7kNvwH69ThX&amp;_nc_oc=Adlxfo8qkFUoZbTNX8VDA36moQMbZ8y9TRHPNMMqoA5wZxscFTsTaboVxlexewIkJzM&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=Kb9BxREtER_r8G01TAov8Q&amp;oh=00_Afej5VbsIDmA7PKMCmu74tOZEDSwpOEz1HwRE6ggTnx1ew&amp;oe=68E4CF5F</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/555568245_4171382906476348_5113224739853953640_n.jpg?_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeHYK-JnX-RGxvPSE5kPUWfuGACjpDiyCe4YAKOkOLIJ7g21VvnbT_swxU1M7T6QIstww_5S8kTZKeiBaXKwZphx&amp;_nc_ohc=wgoqWDdiKtQQ7kNvwFkUypM&amp;_nc_oc=AdkQ99pz5LtXGZ_pa43yoi51iaZJVewAxZw0Lzl2HkHeVm2i9mB7jyUpvggKybLdUfc&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=SFG-kIUqt8VNmYl0Ff1TYw&amp;oh=00_AfeuTiP-l1X_hvu871tDxSOicq5p5nPi1lZfrezAGmYdAg&amp;oe=68E4E312</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/556058834_4171382909809681_7095713896791908292_n.jpg?_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeFZRRXeope-fgNDgEHKVXkY_24Bvj__ZOj_bgG-P_9k6IEFAwtUmR_SQTPFdZIwkth7b2KOkQMelrPfDM2dTAWm&amp;_nc_ohc=rzS7lECuXQYQ7kNvwFbeC3K&amp;_nc_oc=AdnpHEDg1D8GnlkzXvX1A8n1JeavPSFm2Iw2CW8SbSeSCSltYRECWWn4Xs0zMf11Nto&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=TVk-GHkURu5OWlV-IPjB9Q&amp;oh=00_AfcykLj_nWM64i-xftWTaPg7BSKpDKxvccVUb4kQZiyE-A&amp;oe=68E4DB99</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/555441734_4171382899809682_5262918887887602600_n.jpg?_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeEWNI11Dzk-XBdaCO7nyItOl1UlKvvRJR2XVSUq-9ElHYcz8SzbNOi0Ms2bmi9NvM5kD6-Ix-PHL-yrcBCFLyAb&amp;_nc_ohc=TrlkUAmWvfYQ7kNvwGm60Ds&amp;_nc_oc=AdlxUsQYoICgEuDVy-Zu6k6UpMqkwSa2Qdpva3-UAF5ujTj6vH83eLt6-p1MyIAFqfY&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=BeNmAwb7LNYb0ZO3FikNhw&amp;oh=00_AffS5jqRty0nSStsirg0EWveDBjXIg6P02lCb67EqUD9jA&amp;oe=68E4FBAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se vende casa en Castilla la nueva ( meta )
+barrio el progreso excelente sector 
+cuenta con todos los servicios 
+escritura pública individual 
+casa y apartamento independiente 
+2 habitaciones amplias 
+1 baño 🚽 
+sala comedor amplia 
+cocina con estufa empotrada 
+patio de ropas con su lavadero
+* apartamento independiente 
+1 habitación 
+sala comedor 
+cocina 
+baño 
+área de lavado </t>
+  </si>
+  <si>
+    <t>casa en Castilla la nueva ( meta )
+barrio el progreso</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/553777919_4169529669995005_8330700512129229139_n.jpg?_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeFgLyC4A3c0UqxhDxzIa3tTrXp9GZV543Cten0ZlXnjcLZxkc9QkG9-KqSx-74g_Tn1bbA19HLjPtTkPAJ56Md4&amp;_nc_ohc=9S6LdALbNFAQ7kNvwH0YBHh&amp;_nc_oc=AdnhQFYrsTE8l_Mv_hGAnMJo9HOdXrLyFKmzpVllKR-CZQa_5b07M79Dal1FQyaRakg&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=dZhdZbxmnnQhdorbKKe9uQ&amp;oh=00_AfdLwEwZo7_e10Z_YXdd9sG9K48-2cRfApe65X2jm4xuAw&amp;oe=68E4DD23</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/552829564_4169529709995001_4792314330518740819_n.jpg?_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeGceItgfrza9W2jYfpwdANkuiy4ZHXLHgC6LLhkdcseAEGoGpO2FRI2KrA-O8bmIVj_kzgbpJJ6HiDQudBPCOmE&amp;_nc_ohc=HpWLrra-OkQQ7kNvwEP7d-q&amp;_nc_oc=Adn-Jbgz0bce8RPcJVSfQ1S1BQfgJL7ve6zUhczZxGxe3CG__ziQ41FmVE7yNcrngmA&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=nlQRiavniDwDH8-S8AG_uA&amp;oh=00_Afc-W7374vqNEQhM8WfGERMn88pnitAWVjp6RPrh0VZlXg&amp;oe=68E4F9BD</t>
+  </si>
+  <si>
+    <t>$180.000.000</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/554865257_4169529646661674_185951602690675481_n.jpg?_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeHVRpQjj2juYEnAnuiwOnw-9LIESbGYpor0sgRJsZimimgdwNZWLn5i0Z8Hg-cUEmd8aeNXSPQjuzErR7mDK9Td&amp;_nc_ohc=ryWqE79SEcsQ7kNvwGRJKQU&amp;_nc_oc=Adn7qbsMnj0nmXMUgxR0j4IeV6_okP146gbXcRcjhrPtvsSZ6gVnsO4MEFJvjGhDoAs&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=cf0kvhYtnEzXZa8JMon7gQ&amp;oh=00_Afd_wDZieEUt5nfB_ov6Vbmy2Hn9YbVu9TpW0evEJpcmzQ&amp;oe=68E4DDDB</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/552959807_4169529863328319_3732844756916419239_n.jpg?_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeFkF2IS8UQHfvmWHT0xxpvys90BSThKN7iz3QFJOEo3uBvauEnOp6YdOqqbeHHy4meQhpeiFoFWiPM0CgkgScz7&amp;_nc_ohc=gYX4TzLwk-cQ7kNvwESfzC0&amp;_nc_oc=AdnVY7FKpURi4a-GOSlKp8AlDujcRZswg4XcuQhyv1xYo0aYUol2d_vAMcX9UA5lzCQ&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=QtO-7OtByKBauAPFPp4UKg&amp;oh=00_AfdDi2w50fFPfEptiv79vT4ChSbpWMrxj-lMhZ2Lix9V7w&amp;oe=68E4F827</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/555541758_4169529666661672_1959796858813128293_n.jpg?_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeFm5XLBSJ034VdF88LQ5SiGKlTawj4H4O0qVNrCPgfg7cbKx8JTmjXfYi7fHDNlS4EutC1dV5tq-Ze6H8Pc1W7v&amp;_nc_ohc=18kkQz2YoJ0Q7kNvwFjPAno&amp;_nc_oc=AdnCNXQW31kXvyBvtu4SX7J8ra25tfsUr8mgKvkjfiDggQ1HypaAWl-N8weQTsFOx4I&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=ONk_rSf6J5CQhSSD3fs2rg&amp;oh=00_AfcTvq_hfkpaP1KqPBkReLQpsMmH8umR-L1oH-1Cij4PJQ&amp;oe=68E4E16B</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/554835252_4169529733328332_903352642966960117_n.jpg?_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeHCnAbWvI7Y4ENnbD4-p0NsjR6Hr-EHJ3iNHoev4QcneMP066FZbw71hHOVJjAMQhAw2Sh-2kCHE2Rrb_f9AGgs&amp;_nc_ohc=p_vGPUVhQ8oQ7kNvwF8J444&amp;_nc_oc=AdmgrB6jambLVB2iz4eLVmn855hblPyMCcDz-5EWdBJSi5ClzaV4SCadU_CQ_chVlYs&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=WjIawHLlLEAOp_G-loB5lw&amp;oh=00_AfcZhYH6a6TRj87bc0raeyPD3wsOfdFRy-ySqnOILOUnSA&amp;oe=68E4DE56</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/554921478_4169529749994997_7420019269855423045_n.jpg?_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeEeN-rjy6sfOAgyB6xq_aRskwZ58H-w06WTBnnwf7DTpTrXYiBCwjFqIjGE6t3-mVcUkrvHeA5BOm0F0iiplEKV&amp;_nc_ohc=o4o7uB1CWNQQ7kNvwHmAJL-&amp;_nc_oc=Adk4DJsRfUbY81qGokLhKiCgvfQKft7tlTmL6EvWtcddOryFQqFRzxLQpvjAZl9HcCY&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=XVlkLnuzvEjQO3nFwaBJEA&amp;oh=00_Afc0XKmgvmmsHeQgAWCDdWp22ntIi8-83g8fr4ODTsZNEQ&amp;oe=68E5049E</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/555471719_4169529856661653_6636118485345426775_n.jpg?_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeHE3l86bozIEksxjzMjgjNnnEK_fUwb0AKcQr99TBvQAgesnEF6M5B9I-5jVZknNj8k4QI4pagrB1coB2KWljbR&amp;_nc_ohc=arXyrpQApagQ7kNvwGKKUjj&amp;_nc_oc=AdkcLGKtrkC1PCoDjsw2OJxmm6rtj5xCE1TCeFxken71GZb8VA3_AmQ40UOVBATEe2c&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=fY3aQEdPuvH2409yhDKsNA&amp;oh=00_AfeJct4GsFYlqrObM17I3oSbsKv1qh-lgZMVX4L6Kl-Pwg&amp;oe=68E4D7CA</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/554086312_4169529759994996_6593483797075698150_n.jpg?_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeECOwPnWR2Nhv2Jgg2m5ZbDDTvssx2jSAoNO-yzHaNICiNRQhIgWHCN1pyi5rQZFzesdHSHLvyHlOD9_iCgWJuq&amp;_nc_ohc=Ju6JNSRW_A8Q7kNvwEFsUK7&amp;_nc_oc=AdkB7brUuCyEoTl27HS__RwbLeP7o9PQvcTQiWHIKCUdTi3CFvd2d-3Tmq-vVBkrADE&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=j9a6Bk-iERbrjIZeMFePHA&amp;oh=00_Afd1xRQsU4hKwrHmjNNNU25CHbFaVQb92E2-xFydt1xRaA&amp;oe=68E4E3B0</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/555465570_4169529866661652_7280911090190963940_n.jpg?_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeHZ7n22yqOzu6vgpQ489NHbRLIxtyRng8VEsjG3JGeDxcGM5mcOH5sQXwK38ifmJ386sH6_i6GcQ_2TNRunU-6L&amp;_nc_ohc=SYPAVW13TgkQ7kNvwGNRXAg&amp;_nc_oc=AdmZei6PAWANuERM2t028zbU_L2zQP4vW3mWEZBN732IhsSSB5x5SKnbrKuxBTpKa7U&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=N8NDxyXXjp7ptDjmT2Zngw&amp;oh=00_AffSap_ci4YwDEde1voMQhhXFJJCA_Hrh-WSBjcAe65LpQ&amp;oe=68E4FCB2</t>
+  </si>
+  <si>
+    <t>hermosa casa campestre
+Castilla la nueva sector caño cachire 
+8 de frente x 27 de fondo
+3 habitaciones una con baño privado 
+sala comedor súper amplia 
+cocina en L con estufa y platero empotrado
+área de lavado con su tanque 
+baño social amplio 
+patio súper amplio una parte con jardín 
+y la otra como zona BBQ es una propiedad 
+muy bonita sobre via principal de el sector
+muy cerca a el pueblo cerca a caños veraneros
+también a el colegio y a el hospital municipal 
+cuenta con luz electrica y agua potable
+el gas domiciliario está en tramites en el barrio</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/555463532_4169517636662875_4981039794456625431_n.jpg?_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeGWocK2pGtkbXvGEZFJxYX1hsz6FHLaB_SGzPoUctoH9A5Nm7W_KgWUcjLbkz989o84VURyDZtknHVpmzvaz3E3&amp;_nc_ohc=5McFUPo6HwYQ7kNvwHQLa5O&amp;_nc_oc=AdkNkRi4ffjx_Cco5He4wB7uawtVfj2tqVbgEbIQtnyOkfJAynFv52t_wjXZ9uI0sJY&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=ZjZ0kfjuxxa09iLsrKy-ew&amp;oh=00_AffWV4lKhN9ObRQy8tp2VgIFhj9-_GwDUnVYy_LCurZMLQ&amp;oe=68E4EA9F</t>
+  </si>
+  <si>
+    <t>hermosa casa campestre Castilla la nueva sector caño</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/554147173_4169517586662880_3721903501731413620_n.jpg?_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeGB6Dc7asXonC4ofIGIxL2vppQESNXIShCmlARI1chKEBd_izzx4Ax8oJOeCeq9NdtjFYcF5bLqCbXqryHyJjTT&amp;_nc_ohc=VVzsfaqquFYQ7kNvwFKeMQD&amp;_nc_oc=AdlqLbl2IfSRlYOlTM2DlcgAYqR2t7AzsQu1w5CS2rbjyxoF7Vbo-xcAbkbZX3IGbKU&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=OlN8sWp3JE18czcy5Pqfgg&amp;oh=00_AfdNRoZSiU6RuUFXljBqbGNtpp-1YZDkLAyZ-sM8rplNfw&amp;oe=68E4EDBB</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/554289141_4169517576662881_3630047872953919600_n.jpg?_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeE46BrkWnXvuLm93s_2w0x3HiLCRuhW47weIsJG6FbjvMopYdXB8_k7mM_-p1jNQI3zCAoYD5PQI9OK84T602Kz&amp;_nc_ohc=Shd_MLzQXJEQ7kNvwE1u9Wm&amp;_nc_oc=Adk7GCVBB286JhW1uqvwBXfspjhhkRTCUOnb9vaD3_uRmHjNQ2ASxH_s3yJ5i9aAyrk&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=GHCa98d1c0ASuPnk8N7Fhw&amp;oh=00_AffNS9fL_0OkwmGTyYqUm34OzGLNr4J9xoFWB6rL_lT2JA&amp;oe=68E4ED6A</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/555446435_4169517566662882_6628450058943478788_n.jpg?_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeHjRLhumqiSQvSC3xqb64vHZKL7M2gMSmVkovszaAxKZbqX_hajC3H0JTLKchg5WY-LQj0CDIpaZC7AluxVH7f9&amp;_nc_ohc=aH-Fm5sQwBMQ7kNvwGwPel2&amp;_nc_oc=AdmJhYJdk3KLr2Qd6gIlwgCZWl6QvuhnLPIpFlq7g0lP7iAR-1Lecfv_Ob0O4XObXvY&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=XAs6kzxPiejsoZQLEmU0vg&amp;oh=00_AfdT95HD2-7ojEmGLX3d3YEhenbCPNMlB9Ujwt2EscRrUw&amp;oe=68E4F831</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/555505255_4169517559996216_4625370470310321585_n.jpg?_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeGP1etKYMqHO9sMyui0GbMv17R7l768C7TXtHuXvrwLtCyv_aFy1SGAW9sUJdYY9-i5L4_jLL-N-PmA742fVgTe&amp;_nc_ohc=g1RSf8_m_pgQ7kNvwED6uT7&amp;_nc_oc=AdkmdWJnuUeoPDUDRZ-6TRSgDLVTjzJ1L1rnDFqYALGv5fECj4j8PjveL2Mm-RmDuZg&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=XyHEKxdQo2KLH_ii1swFZQ&amp;oh=00_AfeuY5WrmJyBvzX75YjHHI-s8iCGoeBrhqhNPCEQZHVXRw&amp;oe=68E50CD1</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/553150498_4169517606662878_523171848642715383_n.jpg?_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeEb3Lj9pm1PnWyAenGWSKBLDFSnEhOIqREMVKcSE4ipEaRmDfQ5_eQFr0Hqa422nwL96f5w4LlOSBnGYs5z4PM1&amp;_nc_ohc=YzoQncyjUlUQ7kNvwG60z12&amp;_nc_oc=Adln7ssrIW911lZZ5kdsy1FWSw1N4vK1h1Amr9utWWK6bl463WdO8lLU6yvX945Utz0&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=XceD5WsNYeoDo0NcR2MEKw&amp;oh=00_Aff55eXZeCOox02vSshvVAxEXhsb_WtZWY73nkyc_3b7lg&amp;oe=68E4ED96</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/556079273_4169517699996202_4130486700231018977_n.jpg?_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeEvFI8OKT5Qoh0wGuwWWzcjWc2bQMIbKOZZzZtAwhso5v_CijVn4nZimveRmrR-vA7NqKTFKF4LwvciEoW6aK5B&amp;_nc_ohc=k6Myam3yZsAQ7kNvwEF1vGK&amp;_nc_oc=AdlotdT6rc6ztPzsdZ2o6QYqTlAK7S0f9U6EhOZ79Z3h9p46ko9dmXFqKlkMRP8_OOY&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=ylmadtUcIilPHQ2JvsqNwQ&amp;oh=00_AfeMSfufHRfOBn0xMiEtcvhx43B3YdmuBUBROQ3Ekhva1w&amp;oe=68E4FE03</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/555675133_4169517669996205_493286777223146815_n.jpg?_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeHLMcNQ2jX8dLF09p3vXK_xE0wHjJc0XQATTAeMlzRdAExBcJxKmIPRzPeWduUKbokbT5tDGD2LionPA4rF2Dpc&amp;_nc_ohc=p-UbuSOFCHIQ7kNvwGgVE1x&amp;_nc_oc=AdnKANvyHCnPazq_If-OYViQJKiUF_MTh0OS6jB3FQNhb37Ig78TeZ88vFAD89zPC3U&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=s2S3ptsPV1DSNVpXmL582A&amp;oh=00_AfcGKeAVBNIjfeZedBeQa4iMQDXJQDGgZJDelkOlxFRaSw&amp;oe=68E4EB03</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/555050332_4169517939996178_7634266050340524035_n.jpg?_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeH_Geemwh9nni3iCqo21kO7hDoG7BxDvNOEOgbsHEO808dNLTfEifprvR5f0mIXRjzUiXe5fG4C_j4gf9cBcZ3p&amp;_nc_ohc=A35NL3iB-3AQ7kNvwHjDEKC&amp;_nc_oc=AdmIYpmkeF7EZ8ZPf6YvhwKnNTWDvX-Ro4_I3FnIv6sifG4oWZbDBw9Wueqkk3W4f9o&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=sEAOZ0oSN3vu7WKmgsAOug&amp;oh=00_AfcArK2z1gMskxCXBbhBxzc7HMppQJ5lVxOhrD-C2Xapmg&amp;oe=68E4E9E7</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/553711808_4169518159996156_7583388023421176488_n.jpg?_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeHskkKMXVA-IzcuX3Q1cRnYgHRq1o69kfaAdGrWjr2R9rUqYRKHp8TxnWysEuI-Bg8HuO3--Qs9zdbA9aNC4HoK&amp;_nc_ohc=7Galo20pI0IQ7kNvwG3UB0I&amp;_nc_oc=Adn8NPUZdlNB5L6wBWFIEtGOUc7kcpV54I3ohEgTIcq_4KPNyKyFfM-apchKV5PNC7o&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=TuQTL0OY-n7Mz4vuXzknvQ&amp;oh=00_Afc0WVBojST0O9ROdfOKFxXiwhj-0A9cylUK9C9ezN7TSQ&amp;oe=68E50B15</t>
   </si>
 </sst>
 </file>
@@ -523,7 +740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -533,6 +750,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -837,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1415,8 +1638,235 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C16" s="4"/>
+    <row r="14" spans="1:18" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/propiedades11.xlsx
+++ b/propiedades11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Diaz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4EB317-F19E-4DCE-A2CE-88C720BC9BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5EC095-93D9-4328-8CE9-F33B81FE1EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="227">
   <si>
     <t>image</t>
   </si>
@@ -658,12 +658,140 @@
   <si>
     <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/553711808_4169518159996156_7583388023421176488_n.jpg?_nc_cat=110&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeHskkKMXVA-IzcuX3Q1cRnYgHRq1o69kfaAdGrWjr2R9rUqYRKHp8TxnWysEuI-Bg8HuO3--Qs9zdbA9aNC4HoK&amp;_nc_ohc=7Galo20pI0IQ7kNvwG3UB0I&amp;_nc_oc=Adn8NPUZdlNB5L6wBWFIEtGOUc7kcpV54I3ohEgTIcq_4KPNyKyFfM-apchKV5PNC7o&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=TuQTL0OY-n7Mz4vuXzknvQ&amp;oh=00_Afc0WVBojST0O9ROdfOKFxXiwhj-0A9cylUK9C9ezN7TSQ&amp;oe=68E50B15</t>
   </si>
+  <si>
+    <t xml:space="preserve">casa lote
+Vereda violetas 
+Castilla la nueva 
+2 habitaciones 
+Sala comedor 
+cocina
+Tiene un patio amplio
+para seguir construyendo 
+Servicios 
+Agua 💧 
+Luz electrica 
+Gas 
+7 de frente 
+24 de fondo 
+Escritura al porcentaje ya están en tramites para la pública 
+Tiene alcantarillado </t>
+  </si>
+  <si>
+    <t>casa lote
+Vereda violetas</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/530825043_4124563164491656_9134174060895576533_n.jpg?_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeHaWR286jjQfJ0C4NxrVG_L009SS0hOtOXTT1JLSE605SKR9EQ2LY0JaLMLiJgVJfyVHGDX8K0F0HK8mk0QuHMu&amp;_nc_ohc=dBUXuYj3Xi0Q7kNvwEUecSK&amp;_nc_oc=AdkXpy0cXoEVyRPDn9ypyDlIFcSvpTOo53k_iWSut7yw9IDf9WZK6Roit4mUsokmWbQ&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=3WAKlIfGR6p5zfPiVkjmXA&amp;oh=00_AfcM_1LE86XK0TxlW7XdlF_nWO4VyBm3gvcZ7eXYjczXFA&amp;oe=68E4F304</t>
+  </si>
+  <si>
+    <t>$100.000.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se vende casa en Betania
+Medidas de el lote  7 x 25 
+Todos los servicios 
+Escritura al porcentaje 
+</t>
+  </si>
+  <si>
+    <t>$85.000.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> casa en Betania</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/489691412_3997660960515211_2962395255018233653_n.jpg?_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeG-fRKSiv9I8y-uXWJAWhf8sWsSrtYPfZexaxKu1g99l8evShYGrzHM48JHvqQeW84NA0HOZsqht9qvJNvt2-O3&amp;_nc_ohc=ZLNHvDXG-tkQ7kNvwHoDoCa&amp;_nc_oc=AdlxPIWmAbUtyRCtw7v_y2xo4iqgjLCeuJL0IAAw5oIBYFxbnlHJGe8zMIYcsXoIhYw&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=DDCUsagzBIaqwANF0DP8_A&amp;oh=00_Afdgc3-T0qAQrNnP78N3st-VDVD7hPpwncm0GwPhAjWgYA&amp;oe=68E4E0DE</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/488810053_3997660870515220_2023405247830683775_n.jpg?_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeHR85UGshZIIgjS4GOIJWiw9hOpgfKzqev2E6mB8rOp6ylHeShea65iTbEcRzLI5v0644l9NmoKjWLxY6GgMJpS&amp;_nc_ohc=-3sjt5O68tAQ7kNvwEsNIM8&amp;_nc_oc=AdkpfSvedtap1s9EDGH2PogF1QrpnxQuJR9zXqy9_zGrg1kQaCSlyyGHqIIebrlXiu8&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=fEUJ-1vcBDZUVT2JKeE2aQ&amp;oh=00_AfcKcQQd_WJhIX9yMckhmWu-djq649mKSYel1nzoGyUWaA&amp;oe=68E4F8E5</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/489487067_3997660893848551_901390338526305640_n.jpg?_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeH61bMaPCrpkmbDLDzXJlL7XvW0AJCFCjte9bQAkIUKOyeiAG2pejq3kQpyFH6doZSTSF6qgmrhVVnwhd4KsbQW&amp;_nc_ohc=Y5LJkRRcou8Q7kNvwEqZXJ1&amp;_nc_oc=AdlbENj2JOm9bTxVLiSB2QlO9Jt5WWrPCNzIo2qFIuxU-8SoNm2WIMzSEvCNlMFAfoM&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=foLi4NkaLGxb_KzQ3GIXZg&amp;oh=00_Afeqwb6ZY9y85uvrZn0Hlkp7a66fg3aSl2zL2R56Esn-Uw&amp;oe=68E4EB1E</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/488729558_3997660883848552_62294508736826236_n.jpg?_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeEFk9yM3PH6R5xtoFsAk0obSG2kGWN9r75IbaQZY32vvr2njiTY2jQS3BoCz8vJU53Tu4VTK_m5-Tv-ZohvUHL7&amp;_nc_ohc=23YhKeu2MI8Q7kNvwFmFwfy&amp;_nc_oc=AdlR276JsfCm_hekxCYNsofXjv2YBais0AkdlOxy63Xz24ga-D-sOJhR-jgUlecDht4&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=95bkY75JoG0xAhrF0ceCYg&amp;oh=00_AffVzkcZN2TLpj79nkOOeUxXvr0QRzY0WBngIVFU4cod5w&amp;oe=68E4EE4F</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/488850463_3997660890515218_7888946706930409187_n.jpg?_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeFkTZJ09lI2TpXHRsz1xS-zTo9tj8P7GY1Oj22Pw_sZjSuN2C2JT3Rki5fw9N-hd3Ggh9auruky8acuQhPN7SwN&amp;_nc_ohc=x06mSdG72YkQ7kNvwFyvsxn&amp;_nc_oc=AdmhTx63j_wPRqgbmV6v0K7umXNKWjtO7k0UDpALvMFMd7YdIaKkEn_n1mnEfOeUTRA&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=bCKYBdZ7E108YsxdeGOfpg&amp;oh=00_Aff8pPximTQsPKTHDI3pNncw7fEcRMYLpOMEg4r7L5nJDw&amp;oe=68E510CF</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/489823138_3997660897181884_5679616827915596452_n.jpg?_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeHF5WDVHlc9JkS8kFMdJoPAiPLHEooIFYSI8scSiggVhAWivQy8fZrhmh5fPA0X2vIVTB-9lh4L1_9byCqS4BCi&amp;_nc_ohc=id2dvklXd3wQ7kNvwGQTVkA&amp;_nc_oc=Admesh_9cY_a_typWIBuaQTz2-KQpyludeFgjUOALBcXmUuybACKvrkRyLbDn6h1KTg&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=0fyZk_MpHeYybQW6_SsRTQ&amp;oh=00_Aff1wrLzv5iYy8puYr3Bvw8z1LZWsXp1wyUA0-ZbYYt27Q&amp;oe=68E4E75D</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">casa barrio la pradera 
+Castilla la nueva </t>
+  </si>
+  <si>
+    <t>$110.000.000</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/504872560_4063372587277381_8976129083239245535_n.jpg?_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeE-I5RNfNiwuDPqoC9t3eLK6nwvWUCk3HnqfC9ZQKTceemlqiJeTa-uNa7qGyb6EbXI_tPbv7XHbI_bMSyeakB4&amp;_nc_ohc=dLl23kuK5wQQ7kNvwGpj4g5&amp;_nc_oc=Adkx-GGJgFo8ak5xTnMg4JDPy1rqCwFUYRbk5OvGGYSUnxn2CqmWK4LXwP5_r63ookw&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=X-wPgJVe_sd4U6DBZMi1Og&amp;oh=00_Aff1k_7Zenjiu4RIQ3bO1tb3QdLJ_dgAudsLiC5wjWq8XA&amp;oe=68E50E25</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/504446230_4063372577277382_2264555786731019829_n.jpg?_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeGuycuOVXS9ymCATqcKDL5uV_fz3RpVY5NX9_PdGlVjk3h0Ex9QTX96P_OIOpTAt5TltabrZxh9CnBUkyvv3uf1&amp;_nc_ohc=tQRXyOQV1XIQ7kNvwG1bHpR&amp;_nc_oc=AdnfWNux2LKIlsWkbMhGCgaLA-_v0G96j2OVk1FXCyJz6jxOr7BgucjiCGZpMHHJapY&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=jpLStP03DI0i4D4N9usEdw&amp;oh=00_AfecMWbKChV79g38fk7UDIpyVWA5iGadohSpmPc75DStug&amp;oe=68E4ECAF</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/505588318_4063372560610717_5651968632344608230_n.jpg?_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeFCPEb0xPLKHiR-mflNDt5ULW15WxW4QJctbXlbFbhAlwHWTG08soM4mm27daaTuHioZtVGdVu2-dRnZ0yJqC5Y&amp;_nc_ohc=nRnfNb7s0ocQ7kNvwFALv9z&amp;_nc_oc=AdkFDfxOLKJGDGtfaWYpTtRKlHckielWH2QxRnLW-_VTJOaaqxgWktnrDFvLOz5hYxU&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=XVQJr9x4YuFVtlHYajDlBw&amp;oh=00_Afc7rLSO8wckSz0TjWLlkDC9TyRlEn-2VHFDPsGjMrbrvg&amp;oe=68E50E3C</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/504914488_4063372583944048_3313590624609105892_n.jpg?_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeF8dmA2M2kCkeU1GiddP2NFaL53-fCqdChovnf58Kp0KDrLoVVQ8v8GnSX4UrVtrdec-vqHae3fzJWDU1IPId5m&amp;_nc_ohc=o12puMViGaoQ7kNvwFZ3Ukr&amp;_nc_oc=AdnCRBT8z9260HHQZdjBPvAqq9bv9DWuYq8zg8tp7a7hCNrrAr-PbUcSJYlK1hhyRAk&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=ZNaAJjCtu0olIQbsN447bQ&amp;oh=00_AfeB46uPsoS-pWj_VNympTsVjIgnG8ucjJ3sjUBFHQLTXg&amp;oe=68E4E89C</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/505497782_4063372550610718_2582013485494987026_n.jpg?_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeHdgeal0QS5r5G06CRPBJhlB2QBH6vycwQHZAEfq_JzBAvz293A-4Bp8W76Xg0AAoWd4ycRySXBI8DAI3XU5tBm&amp;_nc_ohc=hpZaPLGnpZgQ7kNvwHP9tX-&amp;_nc_oc=AdnHF6IMLixxykBPZV7K6bIea_5J2Tsb2X0NFSgsMgPBRrSUPJWIfMOExiKHi-bulH4&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=m5q9CIau4gp-C4VaQcLNXg&amp;oh=00_AfcaX2a0-9dYAvMmE628jVGpIRJpxUJihqukIcV-tUOvpA&amp;oe=68E4F642</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/505191780_4063372570610716_8304513158355496215_n.jpg?_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeFMhQmob790us_Sq_Tiru4a3CT-q1B2iZrcJP6rUHaJmlfcRnJdtL2t8p5H0QeeUW8F4kmqndkzkK2Pr8ePrRka&amp;_nc_ohc=cdxbQGfIgqgQ7kNvwHXULGv&amp;_nc_oc=AdkkdSyXwEWoL4_WLf7EOP-U5ZllWzjGpMdZIHCi6-BnsDWXVW-v9lGzJ4owKH0Rtrc&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=ZsJLdX6cJ16UlSxOiMNUpg&amp;oh=00_AfcdW8XZ_MRt5_PgM1q5XO6euZ04Zrnec_mvaZh97LQakg&amp;oe=68E4F1E9</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/504350233_4063372537277386_6700017353430883341_n.jpg?_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeFzdeMOQnyYvPC5jzfEo-QQfNhLjUHYkVF82EuNQdiRUefPlkL7MhaMTNtqZebmV3gLyET8Jc5uKG1W6NyMXV9i&amp;_nc_ohc=jI5lU2TfOdIQ7kNvwFsr7cW&amp;_nc_oc=Adl5gDWGYVVWigQetxj2U8xmWDbn6h91M95MHD42JyI30Bc1t-2jCEWbo0Q5BcGXzOw&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=TYc4L2PthcIaSd7EQaDryg&amp;oh=00_AfdiZGXw22jl4k2fZBiAsx-fcU6YqOhtbx6XLAoGPqxagQ&amp;oe=68E4EAA9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se vende casa 2 pisos 
+2 Apartamentos independientes 
+3 habitaciones 
+1 baño
+Sala comedor
+Cocina
+área de lavado 
+ala sombra 
+Medidas 7 x 15
+Escritura pública individual 
+Barrio bosques de santa bárbara </t>
+  </si>
+  <si>
+    <t>casa 2 pisos 
+2 Apartamentos independientes</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/503225919_4057808851167088_8811244891242882859_n.jpg?_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeHyrT4YKaesymU7i1qj9KZk2GQymrHptR_YZDKasem1H8mAiklVB0XvZF4HQkFmJ4TLyH6WymJC0eD3Gg5J_lBp&amp;_nc_ohc=MuNSee-Yx0IQ7kNvwFp4XS5&amp;_nc_oc=AdlPmpeQGbSosyjHpSnOkeYyJvw-ix15ekOKUYaRsrapnDXuCrBn6Hak9S4-pEPV1b8&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=4eEWl6uge6m-9BCKas_kdQ&amp;oh=00_AfeS5YNcrz7RRkDJKdpqe4sCeceeO3QzDELgan0Z18pujQ&amp;oe=68E4EF2A</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/503003015_4057808761167097_5366929119573099614_n.jpg?_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeEr2F1_HGABOqoeErZXWWeP7GR90Etkd1zsZH3QS2R3XPPiNGr2MAlfuwYvxjkQCm7Tm5deeCUFAg1RBtZ72L3y&amp;_nc_ohc=x2Fj54bDQgEQ7kNvwHfIucc&amp;_nc_oc=AdkVztl122G7OwrBJ7oPgEMWp5kUMwk9ZWPC_0I6mED6iOwoNtrJ_sV2m7NjQ0pQgOg&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=Z84XGCPj2188BaAaJvWVhw&amp;oh=00_AffzgU-9QICI8kffwFvMr--Ex2BYaSr88dDduwIZop2qng&amp;oe=68E4F5D1</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/503614799_4057808791167094_3972596725221019533_n.jpg?_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeHAaR4JUyE1Bv73gWL0SYHcODfNT2pGeWM4N81PakZ5Y0qaw6t6JS0k4Au4184pufASOjnW3sBiLa4d17WAqhpA&amp;_nc_ohc=YPEHgiVm63gQ7kNvwFEaOC3&amp;_nc_oc=Adlg17PiSArAekgnD9mkacgoh0kH3QGKe82dbM9Cevo6zIRFBEHoESrCEaF_Pq1ugdQ&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=Hzu9Y-PmAuOltcfoSVRL7A&amp;oh=00_AfdmD1QBq0fspADDZ_rH9BjBVo7_P7sbfbre4zpCEzE40g&amp;oe=68E50E57</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/503487392_4057808894500417_7080718124524103351_n.jpg?_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeHkvRx5uGVO2xy8nHBLQQJdJgx8iVkqVu8mDHyJWSpW70d1wjMeVRKbxfE9HhJjqV_pNss_zYsrb8hmLbQXoOVC&amp;_nc_ohc=L0VtIEir76QQ7kNvwF3SzSe&amp;_nc_oc=AdnE0OiaoYy7XMQ_x6U--sXFYdn3_Q7zZbFswzDYqveP2_1KJ-uMlmHN1-2XpxTGYBQ&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=6KH8r9S0L-hFQpXb31hqKQ&amp;oh=00_AfcX0YowXolhi3ujCZ4Ov3lNZpHHx--5dkpFDvBg0e8ZVw&amp;oe=68E505BB</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/503778914_4057808807833759_594740729239003401_n.jpg?_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeH3iJKghkPQVCQD9j9rTuQb5Tsv5S5ZWUPlOy_lLllZQy_SPsD-AQV29J8y-oLHnSZPrM1IVPdxeWr94O3KP5pZ&amp;_nc_ohc=Bo1Li4AFtjsQ7kNvwF8HCl3&amp;_nc_oc=AdnFgXDjhlJWN76Nrh6FZuINrOEBSCEGjhWXHnLtfOkSfW2B4gb0HL7YOtKSb88AJ5A&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=lt4kPdZ8v-igkpVkrX9_rQ&amp;oh=00_AfceXgYvfsNRYMtENPbE4CqhEfPqZoW1Fi9xtKZDVZKlzA&amp;oe=68E50116</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/503673007_4057808801167093_3272675683915932200_n.jpg?_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeFz9qo5Vc05Ylfji6a7r0K_GPT0pYQL4hkY9PSlhAviGVhel-1NzUSvCE1x7QqfwIaYbZQ6iQQdekWTCXElEN2C&amp;_nc_ohc=hKAIblzsDaUQ7kNvwE2Czsa&amp;_nc_oc=AdlQMsfXg6qFxHCtpxjgo3YnZfskcYNkE9O3LKg65JCv20bMSID5b0ROaJqtP0qALio&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=r2HqvmMZSzqOy4K8qhOghA&amp;oh=00_AfdOxTLdhKF3PO3BHFmhtkr6HKP0J4wmmHqv1jhHyQcrjQ&amp;oe=68E50B52</t>
+  </si>
+  <si>
+    <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/503786194_4057808811167092_7127782990938487144_n.jpg?_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeHO-DgWzDawd1rxsirY5kgADANG4VM4oNwMA0bhUzig3O9JQx-LjoRsxDuyFyjnRoI1_fZKExzKb5CYyvCF2SOz&amp;_nc_ohc=mWG_nQGb4LwQ7kNvwGwxH8i&amp;_nc_oc=AdkeQ29_dD7q1tgG9Iqcy_QiVOdPZU66p4WYus6nQMW7IU2-FlBVYxdGtymh9QzqnHA&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=MYQZYMQVp6F5Jr54_X8yTg&amp;oh=00_AfeAUu024jOK0QNtPyclhBF-vziilgjKq0T7sVBOVghGxQ&amp;oe=68E4E087</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,6 +817,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -737,10 +873,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -750,6 +887,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -757,7 +895,8 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1060,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,7 +1787,7 @@
       <c r="C14" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>146</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -1701,10 +1840,10 @@
       <c r="B15" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>161</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -1748,10 +1887,10 @@
       <c r="B16" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>170</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -1807,7 +1946,7 @@
       <c r="C17" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>183</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -1853,23 +1992,184 @@
         <v>194</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="255" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>197</v>
+      </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="B19" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>207</v>
+      </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="256.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>159</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="165" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B20" r:id="rId1" display="https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/505588318_4063372560610717_5651968632344608230_n.jpg?_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeFCPEb0xPLKHiR-mflNDt5ULW15WxW4QJctbXlbFbhAlwHWTG08soM4mm27daaTuHioZtVGdVu2-dRnZ0yJqC5Y&amp;_nc_ohc=nRnfNb7s0ocQ7kNvwFALv9z&amp;_nc_oc=AdkFDfxOLKJGDGtfaWYpTtRKlHckielWH2QxRnLW-_VTJOaaqxgWktnrDFvLOz5hYxU&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=XVQJr9x4YuFVtlHYajDlBw&amp;oh=00_Afc7rLSO8wckSz0TjWLlkDC9TyRlEn-2VHFDPsGjMrbrvg&amp;oe=68E50E3C" xr:uid="{A4D7CCA8-7190-4C5D-AD24-8A07825DEEC8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/propiedades11.xlsx
+++ b/propiedades11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Diaz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5EC095-93D9-4328-8CE9-F33B81FE1EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904B0C46-326E-4753-9152-849C59D20EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -572,10 +572,6 @@
 área de lavado </t>
   </si>
   <si>
-    <t>casa en Castilla la nueva ( meta )
-barrio el progreso</t>
-  </si>
-  <si>
     <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/553777919_4169529669995005_8330700512129229139_n.jpg?_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeFgLyC4A3c0UqxhDxzIa3tTrXp9GZV543Cten0ZlXnjcLZxkc9QkG9-KqSx-74g_Tn1bbA19HLjPtTkPAJ56Md4&amp;_nc_ohc=9S6LdALbNFAQ7kNvwH0YBHh&amp;_nc_oc=AdnhQFYrsTE8l_Mv_hGAnMJo9HOdXrLyFKmzpVllKR-CZQa_5b07M79Dal1FQyaRakg&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=dZhdZbxmnnQhdorbKKe9uQ&amp;oh=00_AfdLwEwZo7_e10Z_YXdd9sG9K48-2cRfApe65X2jm4xuAw&amp;oe=68E4DD23</t>
   </si>
   <si>
@@ -677,10 +673,6 @@
 Tiene alcantarillado </t>
   </si>
   <si>
-    <t>casa lote
-Vereda violetas</t>
-  </si>
-  <si>
     <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/530825043_4124563164491656_9134174060895576533_n.jpg?_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeHaWR286jjQfJ0C4NxrVG_L009SS0hOtOXTT1JLSE605SKR9EQ2LY0JaLMLiJgVJfyVHGDX8K0F0HK8mk0QuHMu&amp;_nc_ohc=dBUXuYj3Xi0Q7kNvwEUecSK&amp;_nc_oc=AdkXpy0cXoEVyRPDn9ypyDlIFcSvpTOo53k_iWSut7yw9IDf9WZK6Roit4mUsokmWbQ&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=3WAKlIfGR6p5zfPiVkjmXA&amp;oh=00_AfcM_1LE86XK0TxlW7XdlF_nWO4VyBm3gvcZ7eXYjczXFA&amp;oe=68E4F304</t>
   </si>
   <si>
@@ -719,10 +711,6 @@
   </si>
   <si>
     <t>20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">casa barrio la pradera 
-Castilla la nueva </t>
   </si>
   <si>
     <t>$110.000.000</t>
@@ -762,10 +750,6 @@
 Barrio bosques de santa bárbara </t>
   </si>
   <si>
-    <t>casa 2 pisos 
-2 Apartamentos independientes</t>
-  </si>
-  <si>
     <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/503225919_4057808851167088_8811244891242882859_n.jpg?_nc_cat=111&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeHyrT4YKaesymU7i1qj9KZk2GQymrHptR_YZDKasem1H8mAiklVB0XvZF4HQkFmJ4TLyH6WymJC0eD3Gg5J_lBp&amp;_nc_ohc=MuNSee-Yx0IQ7kNvwFp4XS5&amp;_nc_oc=AdlPmpeQGbSosyjHpSnOkeYyJvw-ix15ekOKUYaRsrapnDXuCrBn6Hak9S4-pEPV1b8&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=4eEWl6uge6m-9BCKas_kdQ&amp;oh=00_AfeS5YNcrz7RRkDJKdpqe4sCeceeO3QzDELgan0Z18pujQ&amp;oe=68E4EF2A</t>
   </si>
   <si>
@@ -785,13 +769,25 @@
   </si>
   <si>
     <t>https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/503786194_4057808811167092_7127782990938487144_n.jpg?_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeHO-DgWzDawd1rxsirY5kgADANG4VM4oNwMA0bhUzig3O9JQx-LjoRsxDuyFyjnRoI1_fZKExzKb5CYyvCF2SOz&amp;_nc_ohc=mWG_nQGb4LwQ7kNvwGwxH8i&amp;_nc_oc=AdkeQ29_dD7q1tgG9Iqcy_QiVOdPZU66p4WYus6nQMW7IU2-FlBVYxdGtymh9QzqnHA&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=MYQZYMQVp6F5Jr54_X8yTg&amp;oh=00_AfeAUu024jOK0QNtPyclhBF-vziilgjKq0T7sVBOVghGxQ&amp;oe=68E4E087</t>
+  </si>
+  <si>
+    <t>casa 2 pisos  2 Apartamentos independientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">casa barrio la pradera Castilla la nueva </t>
+  </si>
+  <si>
+    <t>casa lote Vereda violetas</t>
+  </si>
+  <si>
+    <t>casa en Castilla la nueva ( meta ) barrio el progreso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -817,14 +813,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -873,11 +861,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -887,7 +874,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -895,8 +881,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1201,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1787,7 +1772,7 @@
       <c r="C14" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>146</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -1840,10 +1825,10 @@
       <c r="B15" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>161</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -1885,16 +1870,16 @@
         <v>142</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>29</v>
@@ -1909,31 +1894,31 @@
         <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K16" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="Q16" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1941,13 +1926,13 @@
         <v>143</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>183</v>
+      <c r="D17" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>147</v>
@@ -1965,31 +1950,31 @@
         <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="O17" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="P17" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="Q17" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="R17" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="255" x14ac:dyDescent="0.25">
@@ -1997,16 +1982,16 @@
         <v>157</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C18" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>29</v>
@@ -2021,7 +2006,7 @@
         <v>41</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="60" x14ac:dyDescent="0.25">
@@ -2029,16 +2014,16 @@
         <v>158</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D19" s="6" t="s">
         <v>199</v>
       </c>
+      <c r="D19" s="5" t="s">
+        <v>197</v>
+      </c>
       <c r="E19" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>29</v>
@@ -2053,36 +2038,36 @@
         <v>12</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="256.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="B20" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>161</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>29</v>
@@ -2097,39 +2082,39 @@
         <v>12</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="O20" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="P20" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="165" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>109</v>
@@ -2147,29 +2132,26 @@
         <v>12</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1" display="https://scontent.fpei6-1.fna.fbcdn.net/v/t39.30808-6/505588318_4063372560610717_5651968632344608230_n.jpg?_nc_cat=108&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_eui2=AeFCPEb0xPLKHiR-mflNDt5ULW15WxW4QJctbXlbFbhAlwHWTG08soM4mm27daaTuHioZtVGdVu2-dRnZ0yJqC5Y&amp;_nc_ohc=nRnfNb7s0ocQ7kNvwFALv9z&amp;_nc_oc=AdkFDfxOLKJGDGtfaWYpTtRKlHckielWH2QxRnLW-_VTJOaaqxgWktnrDFvLOz5hYxU&amp;_nc_zt=23&amp;_nc_ht=scontent.fpei6-1.fna&amp;_nc_gid=XVQJr9x4YuFVtlHYajDlBw&amp;oh=00_Afc7rLSO8wckSz0TjWLlkDC9TyRlEn-2VHFDPsGjMrbrvg&amp;oe=68E50E3C" xr:uid="{A4D7CCA8-7190-4C5D-AD24-8A07825DEEC8}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>